--- a/Models/case1_df_val.xlsx
+++ b/Models/case1_df_val.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>DATA</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>pred_RNN_ENDO_1_NEW_val</t>
+  </si>
+  <si>
+    <t>pred_RNN_EXO_1_NEW_val</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ90"/>
+  <dimension ref="A1:AR90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +509,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +639,11 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:44">
       <c r="A2" s="2" t="n">
         <v>43157</v>
       </c>
@@ -741,34 +747,37 @@
         <v>53</v>
       </c>
       <c r="AI2" t="n">
-        <v>50.18215560913086</v>
+        <v>52.44961166381836</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38.46297454833984</v>
+        <v>70.81661224365234</v>
       </c>
       <c r="AK2" t="n">
-        <v>51.51378631591797</v>
+        <v>110.4018402099609</v>
       </c>
       <c r="AL2" t="n">
-        <v>117.2668991088867</v>
+        <v>96.70938873291016</v>
       </c>
       <c r="AM2" t="n">
-        <v>45.38632202148438</v>
+        <v>52.54713821411133</v>
       </c>
       <c r="AN2" t="n">
-        <v>416.0032043457031</v>
+        <v>274.3300170898438</v>
       </c>
       <c r="AO2" t="n">
-        <v>239.9150390625</v>
+        <v>463.68115234375</v>
       </c>
       <c r="AP2" t="n">
-        <v>239.9150390625</v>
+        <v>463.68115234375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51.51378631591797</v>
+        <v>110.4018402099609</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>426.3899536132812</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:44">
       <c r="A3" s="2" t="n">
         <v>43158</v>
       </c>
@@ -872,34 +881,37 @@
         <v>52</v>
       </c>
       <c r="AI3" t="n">
-        <v>345.4386901855469</v>
+        <v>354.84228515625</v>
       </c>
       <c r="AJ3" t="n">
-        <v>588.4688110351562</v>
+        <v>483.707763671875</v>
       </c>
       <c r="AK3" t="n">
-        <v>491.6519470214844</v>
+        <v>205.2556915283203</v>
       </c>
       <c r="AL3" t="n">
-        <v>428.4586486816406</v>
+        <v>463.6700744628906</v>
       </c>
       <c r="AM3" t="n">
-        <v>474.9332885742188</v>
+        <v>501.4675598144531</v>
       </c>
       <c r="AN3" t="n">
-        <v>294.0177917480469</v>
+        <v>233.0739593505859</v>
       </c>
       <c r="AO3" t="n">
-        <v>289.1775512695312</v>
+        <v>340.2372436523438</v>
       </c>
       <c r="AP3" t="n">
-        <v>289.1775512695312</v>
+        <v>340.2372436523438</v>
       </c>
       <c r="AQ3" t="n">
-        <v>491.6519470214844</v>
+        <v>205.2556915283203</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>281.2737731933594</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:44">
       <c r="A4" s="2" t="n">
         <v>43159</v>
       </c>
@@ -1003,36 +1015,39 @@
         <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>349.2072448730469</v>
+        <v>353.1434936523438</v>
       </c>
       <c r="AJ4" t="n">
-        <v>366.8411865234375</v>
+        <v>347.5736083984375</v>
       </c>
       <c r="AK4" t="n">
-        <v>389.53662109375</v>
+        <v>277.0984802246094</v>
       </c>
       <c r="AL4" t="n">
-        <v>355.4634704589844</v>
+        <v>343.1988220214844</v>
       </c>
       <c r="AM4" t="n">
-        <v>366.330322265625</v>
+        <v>378.4636840820312</v>
       </c>
       <c r="AN4" t="n">
-        <v>325.585693359375</v>
+        <v>259.2929992675781</v>
       </c>
       <c r="AO4" t="n">
-        <v>316.0096130371094</v>
+        <v>313.3875427246094</v>
       </c>
       <c r="AP4" t="n">
-        <v>316.0096130371094</v>
+        <v>313.3875427246094</v>
       </c>
       <c r="AQ4" t="n">
-        <v>389.53662109375</v>
+        <v>277.0984802246094</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>282.5411376953125</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:44">
       <c r="A5" s="2" t="n">
-        <v>43103</v>
+        <v>43160</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1134,36 +1149,39 @@
         <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>428.2084045410156</v>
+        <v>433.7220153808594</v>
       </c>
       <c r="AJ5" t="n">
-        <v>402.5746459960938</v>
+        <v>431.202880859375</v>
       </c>
       <c r="AK5" t="n">
-        <v>454.3756103515625</v>
+        <v>326.232666015625</v>
       </c>
       <c r="AL5" t="n">
-        <v>431.9261779785156</v>
+        <v>445.2066955566406</v>
       </c>
       <c r="AM5" t="n">
-        <v>446.4728393554688</v>
+        <v>434.5509948730469</v>
       </c>
       <c r="AN5" t="n">
-        <v>361.8636779785156</v>
+        <v>349.0590515136719</v>
       </c>
       <c r="AO5" t="n">
-        <v>384.4671630859375</v>
+        <v>315.94482421875</v>
       </c>
       <c r="AP5" t="n">
-        <v>384.4671630859375</v>
+        <v>315.94482421875</v>
       </c>
       <c r="AQ5" t="n">
-        <v>454.3756103515625</v>
+        <v>326.232666015625</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>248.3372802734375</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:44">
       <c r="A6" s="2" t="n">
-        <v>43134</v>
+        <v>43161</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1265,36 +1283,39 @@
         <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>343.6737670898438</v>
+        <v>341.3722534179688</v>
       </c>
       <c r="AJ6" t="n">
-        <v>258.7138061523438</v>
+        <v>294.12255859375</v>
       </c>
       <c r="AK6" t="n">
-        <v>346.2794494628906</v>
+        <v>347.5252685546875</v>
       </c>
       <c r="AL6" t="n">
-        <v>269.525390625</v>
+        <v>331.6355590820312</v>
       </c>
       <c r="AM6" t="n">
-        <v>273.3294372558594</v>
+        <v>321.9144287109375</v>
       </c>
       <c r="AN6" t="n">
-        <v>301.1008605957031</v>
+        <v>290.8775024414062</v>
       </c>
       <c r="AO6" t="n">
-        <v>422.9132995605469</v>
+        <v>257.7154541015625</v>
       </c>
       <c r="AP6" t="n">
-        <v>422.9132995605469</v>
+        <v>257.7154541015625</v>
       </c>
       <c r="AQ6" t="n">
-        <v>346.2794494628906</v>
+        <v>347.5252685546875</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>261.0311279296875</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:44">
       <c r="A7" s="2" t="n">
-        <v>43223</v>
+        <v>43164</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1396,36 +1417,39 @@
         <v>190</v>
       </c>
       <c r="AI7" t="n">
-        <v>281.2895202636719</v>
+        <v>289.4020080566406</v>
       </c>
       <c r="AJ7" t="n">
-        <v>342.2383728027344</v>
+        <v>353.0582885742188</v>
       </c>
       <c r="AK7" t="n">
-        <v>359.5934448242188</v>
+        <v>363.6881713867188</v>
       </c>
       <c r="AL7" t="n">
-        <v>363.519775390625</v>
+        <v>374.8207397460938</v>
       </c>
       <c r="AM7" t="n">
-        <v>367.377685546875</v>
+        <v>383.9009094238281</v>
       </c>
       <c r="AN7" t="n">
-        <v>341.964111328125</v>
+        <v>333.5780944824219</v>
       </c>
       <c r="AO7" t="n">
-        <v>430.6657409667969</v>
+        <v>320.8973999023438</v>
       </c>
       <c r="AP7" t="n">
-        <v>430.6657409667969</v>
+        <v>320.8973999023438</v>
       </c>
       <c r="AQ7" t="n">
-        <v>359.5934448242188</v>
+        <v>363.6881713867188</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>282.3413391113281</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:44">
       <c r="A8" s="2" t="n">
-        <v>43254</v>
+        <v>43165</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1527,36 +1551,39 @@
         <v>237</v>
       </c>
       <c r="AI8" t="n">
-        <v>353.16357421875</v>
+        <v>364.2403869628906</v>
       </c>
       <c r="AJ8" t="n">
-        <v>420.9402465820312</v>
+        <v>406.742431640625</v>
       </c>
       <c r="AK8" t="n">
-        <v>388.5273132324219</v>
+        <v>384.4704284667969</v>
       </c>
       <c r="AL8" t="n">
-        <v>389.2984924316406</v>
+        <v>418.9818420410156</v>
       </c>
       <c r="AM8" t="n">
-        <v>431.6694641113281</v>
+        <v>399.5610046386719</v>
       </c>
       <c r="AN8" t="n">
-        <v>352.7955627441406</v>
+        <v>330.6862182617188</v>
       </c>
       <c r="AO8" t="n">
-        <v>419.8033752441406</v>
+        <v>348.0480346679688</v>
       </c>
       <c r="AP8" t="n">
-        <v>419.8033752441406</v>
+        <v>348.0480346679688</v>
       </c>
       <c r="AQ8" t="n">
-        <v>388.5273132324219</v>
+        <v>384.4704284667969</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>277.2896423339844</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:44">
       <c r="A9" s="2" t="n">
-        <v>43284</v>
+        <v>43166</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1658,36 +1685,39 @@
         <v>233</v>
       </c>
       <c r="AI9" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ9" t="n">
-        <v>556.8802490234375</v>
+        <v>531.0938110351562</v>
       </c>
       <c r="AK9" t="n">
-        <v>430.3949584960938</v>
+        <v>415.16552734375</v>
       </c>
       <c r="AL9" t="n">
-        <v>447.0783386230469</v>
+        <v>474.2773742675781</v>
       </c>
       <c r="AM9" t="n">
-        <v>448.7227478027344</v>
+        <v>482.512451171875</v>
       </c>
       <c r="AN9" t="n">
-        <v>440.3869934082031</v>
+        <v>422.4094848632812</v>
       </c>
       <c r="AO9" t="n">
-        <v>416.6394348144531</v>
+        <v>437.4156188964844</v>
       </c>
       <c r="AP9" t="n">
-        <v>416.6394348144531</v>
+        <v>437.4156188964844</v>
       </c>
       <c r="AQ9" t="n">
-        <v>430.3949584960938</v>
+        <v>415.16552734375</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>276.9366455078125</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:44">
       <c r="A10" s="2" t="n">
-        <v>43315</v>
+        <v>43167</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1789,36 +1819,39 @@
         <v>231</v>
       </c>
       <c r="AI10" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ10" t="n">
-        <v>425.0717163085938</v>
+        <v>465.8220825195312</v>
       </c>
       <c r="AK10" t="n">
-        <v>445.8093566894531</v>
+        <v>435.7185363769531</v>
       </c>
       <c r="AL10" t="n">
-        <v>436.3612976074219</v>
+        <v>457.1299133300781</v>
       </c>
       <c r="AM10" t="n">
-        <v>469.3789367675781</v>
+        <v>465.8759155273438</v>
       </c>
       <c r="AN10" t="n">
-        <v>461.9582214355469</v>
+        <v>458.1023864746094</v>
       </c>
       <c r="AO10" t="n">
-        <v>414.0901489257812</v>
+        <v>425.6147766113281</v>
       </c>
       <c r="AP10" t="n">
-        <v>414.0901489257812</v>
+        <v>425.6147766113281</v>
       </c>
       <c r="AQ10" t="n">
-        <v>445.8093566894531</v>
+        <v>435.7185363769531</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>275.8467407226562</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:44">
       <c r="A11" s="2" t="n">
-        <v>43346</v>
+        <v>43168</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1920,36 +1953,39 @@
         <v>92</v>
       </c>
       <c r="AI11" t="n">
-        <v>415.9461975097656</v>
+        <v>417.7019958496094</v>
       </c>
       <c r="AJ11" t="n">
-        <v>403.3075561523438</v>
+        <v>382.8021850585938</v>
       </c>
       <c r="AK11" t="n">
-        <v>394.434814453125</v>
+        <v>409.9883422851562</v>
       </c>
       <c r="AL11" t="n">
-        <v>422.4334716796875</v>
+        <v>398.6118774414062</v>
       </c>
       <c r="AM11" t="n">
-        <v>356.8153686523438</v>
+        <v>322.391357421875</v>
       </c>
       <c r="AN11" t="n">
-        <v>368.5269165039062</v>
+        <v>385.4549560546875</v>
       </c>
       <c r="AO11" t="n">
-        <v>419.8623352050781</v>
+        <v>340.9236755371094</v>
       </c>
       <c r="AP11" t="n">
-        <v>419.8623352050781</v>
+        <v>340.9236755371094</v>
       </c>
       <c r="AQ11" t="n">
-        <v>394.434814453125</v>
+        <v>409.9883422851562</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>246.5967254638672</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:44">
       <c r="A12" s="2" t="n">
-        <v>43437</v>
+        <v>43171</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2051,34 +2087,37 @@
         <v>156</v>
       </c>
       <c r="AI12" t="n">
-        <v>232.6182250976562</v>
+        <v>242.6730499267578</v>
       </c>
       <c r="AJ12" t="n">
-        <v>338.3212280273438</v>
+        <v>377.2235412597656</v>
       </c>
       <c r="AK12" t="n">
-        <v>326.2352905273438</v>
+        <v>403.1693115234375</v>
       </c>
       <c r="AL12" t="n">
-        <v>381.5675659179688</v>
+        <v>370.6113891601562</v>
       </c>
       <c r="AM12" t="n">
-        <v>348.5378723144531</v>
+        <v>334.0176391601562</v>
       </c>
       <c r="AN12" t="n">
-        <v>339.92041015625</v>
+        <v>354.4739074707031</v>
       </c>
       <c r="AO12" t="n">
-        <v>428.5504150390625</v>
+        <v>314.7511596679688</v>
       </c>
       <c r="AP12" t="n">
-        <v>428.5504150390625</v>
+        <v>314.7511596679688</v>
       </c>
       <c r="AQ12" t="n">
-        <v>326.2352905273438</v>
+        <v>403.1693115234375</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>283.1495361328125</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:44">
       <c r="A13" s="2" t="n">
         <v>43172</v>
       </c>
@@ -2182,34 +2221,37 @@
         <v>289</v>
       </c>
       <c r="AI13" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ13" t="n">
-        <v>555.2050170898438</v>
+        <v>559.3031616210938</v>
       </c>
       <c r="AK13" t="n">
-        <v>486.4925537109375</v>
+        <v>430.3540954589844</v>
       </c>
       <c r="AL13" t="n">
-        <v>443.4878234863281</v>
+        <v>456.3868408203125</v>
       </c>
       <c r="AM13" t="n">
-        <v>510.8177490234375</v>
+        <v>525.2410888671875</v>
       </c>
       <c r="AN13" t="n">
-        <v>419.3717041015625</v>
+        <v>415.4574890136719</v>
       </c>
       <c r="AO13" t="n">
-        <v>442.3118286132812</v>
+        <v>419.5163269042969</v>
       </c>
       <c r="AP13" t="n">
-        <v>442.3118286132812</v>
+        <v>419.5163269042969</v>
       </c>
       <c r="AQ13" t="n">
-        <v>486.4925537109375</v>
+        <v>430.3540954589844</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>313.2375793457031</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:44">
       <c r="A14" s="2" t="n">
         <v>43173</v>
       </c>
@@ -2313,34 +2355,37 @@
         <v>264</v>
       </c>
       <c r="AI14" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ14" t="n">
-        <v>480.7709655761719</v>
+        <v>534.354248046875</v>
       </c>
       <c r="AK14" t="n">
-        <v>427.9391784667969</v>
+        <v>456.435546875</v>
       </c>
       <c r="AL14" t="n">
-        <v>439.1085510253906</v>
+        <v>462.8493041992188</v>
       </c>
       <c r="AM14" t="n">
-        <v>466.3800354003906</v>
+        <v>473.2184448242188</v>
       </c>
       <c r="AN14" t="n">
-        <v>455.0243835449219</v>
+        <v>419.5037841796875</v>
       </c>
       <c r="AO14" t="n">
-        <v>432.3529663085938</v>
+        <v>442.1398010253906</v>
       </c>
       <c r="AP14" t="n">
-        <v>432.3529663085938</v>
+        <v>442.1398010253906</v>
       </c>
       <c r="AQ14" t="n">
-        <v>427.9391784667969</v>
+        <v>456.435546875</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>299.6663513183594</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:44">
       <c r="A15" s="2" t="n">
         <v>43174</v>
       </c>
@@ -2444,34 +2489,37 @@
         <v>261</v>
       </c>
       <c r="AI15" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ15" t="n">
-        <v>486.3766784667969</v>
+        <v>523.061279296875</v>
       </c>
       <c r="AK15" t="n">
-        <v>472.5635070800781</v>
+        <v>458.0199584960938</v>
       </c>
       <c r="AL15" t="n">
-        <v>437.5111389160156</v>
+        <v>439.6432189941406</v>
       </c>
       <c r="AM15" t="n">
-        <v>475.0536499023438</v>
+        <v>502.8142395019531</v>
       </c>
       <c r="AN15" t="n">
-        <v>440.0719909667969</v>
+        <v>390.89990234375</v>
       </c>
       <c r="AO15" t="n">
-        <v>418.3074340820312</v>
+        <v>413.25146484375</v>
       </c>
       <c r="AP15" t="n">
-        <v>418.3074340820312</v>
+        <v>413.25146484375</v>
       </c>
       <c r="AQ15" t="n">
-        <v>472.5635070800781</v>
+        <v>458.0199584960938</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>266.4639892578125</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:44">
       <c r="A16" s="2" t="n">
         <v>43175</v>
       </c>
@@ -2575,34 +2623,37 @@
         <v>102</v>
       </c>
       <c r="AI16" t="n">
-        <v>387.0442810058594</v>
+        <v>395.324951171875</v>
       </c>
       <c r="AJ16" t="n">
-        <v>311.0978393554688</v>
+        <v>378.9602661132812</v>
       </c>
       <c r="AK16" t="n">
-        <v>352.3293151855469</v>
+        <v>431.9020080566406</v>
       </c>
       <c r="AL16" t="n">
-        <v>299.42919921875</v>
+        <v>319.1209411621094</v>
       </c>
       <c r="AM16" t="n">
-        <v>322.5529479980469</v>
+        <v>315.0445556640625</v>
       </c>
       <c r="AN16" t="n">
-        <v>335.138427734375</v>
+        <v>285.0044250488281</v>
       </c>
       <c r="AO16" t="n">
-        <v>432.2920227050781</v>
+        <v>331.693359375</v>
       </c>
       <c r="AP16" t="n">
-        <v>432.2920227050781</v>
+        <v>331.693359375</v>
       </c>
       <c r="AQ16" t="n">
-        <v>352.3293151855469</v>
+        <v>431.9020080566406</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>263.05908203125</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:44">
       <c r="A17" s="2" t="n">
         <v>43179</v>
       </c>
@@ -2706,34 +2757,37 @@
         <v>252</v>
       </c>
       <c r="AI17" t="n">
-        <v>287.9377136230469</v>
+        <v>297.8072509765625</v>
       </c>
       <c r="AJ17" t="n">
-        <v>391.8570251464844</v>
+        <v>382.1870727539062</v>
       </c>
       <c r="AK17" t="n">
-        <v>376.8779296875</v>
+        <v>421.3440551757812</v>
       </c>
       <c r="AL17" t="n">
-        <v>379.0130615234375</v>
+        <v>379.7279663085938</v>
       </c>
       <c r="AM17" t="n">
-        <v>384.0416870117188</v>
+        <v>419.2394409179688</v>
       </c>
       <c r="AN17" t="n">
-        <v>317.7881164550781</v>
+        <v>297.8442077636719</v>
       </c>
       <c r="AO17" t="n">
-        <v>434.089111328125</v>
+        <v>296.5595092773438</v>
       </c>
       <c r="AP17" t="n">
-        <v>434.089111328125</v>
+        <v>296.5595092773438</v>
       </c>
       <c r="AQ17" t="n">
-        <v>376.8779296875</v>
+        <v>421.3440551757812</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>308.4296264648438</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:44">
       <c r="A18" s="2" t="n">
         <v>43180</v>
       </c>
@@ -2837,34 +2891,37 @@
         <v>309</v>
       </c>
       <c r="AI18" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ18" t="n">
-        <v>625.6162719726562</v>
+        <v>594.20263671875</v>
       </c>
       <c r="AK18" t="n">
-        <v>498.0252075195312</v>
+        <v>476.0687255859375</v>
       </c>
       <c r="AL18" t="n">
-        <v>449.2700805664062</v>
+        <v>478.3453369140625</v>
       </c>
       <c r="AM18" t="n">
-        <v>601.0991821289062</v>
+        <v>566.3751220703125</v>
       </c>
       <c r="AN18" t="n">
-        <v>436.6985473632812</v>
+        <v>411.0451354980469</v>
       </c>
       <c r="AO18" t="n">
-        <v>420.2382202148438</v>
+        <v>443.3971557617188</v>
       </c>
       <c r="AP18" t="n">
-        <v>420.2382202148438</v>
+        <v>443.3971557617188</v>
       </c>
       <c r="AQ18" t="n">
-        <v>498.0252075195312</v>
+        <v>476.0687255859375</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>300.2984924316406</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:44">
       <c r="A19" s="2" t="n">
         <v>43181</v>
       </c>
@@ -2968,34 +3025,37 @@
         <v>265</v>
       </c>
       <c r="AI19" t="n">
-        <v>420.2000427246094</v>
+        <v>427.21826171875</v>
       </c>
       <c r="AJ19" t="n">
-        <v>509.9783325195312</v>
+        <v>501.7560729980469</v>
       </c>
       <c r="AK19" t="n">
-        <v>439.841552734375</v>
+        <v>464.3658142089844</v>
       </c>
       <c r="AL19" t="n">
-        <v>436.9324951171875</v>
+        <v>431.8392944335938</v>
       </c>
       <c r="AM19" t="n">
-        <v>430.6863403320312</v>
+        <v>489.4645690917969</v>
       </c>
       <c r="AN19" t="n">
-        <v>445.0401611328125</v>
+        <v>407.9790954589844</v>
       </c>
       <c r="AO19" t="n">
-        <v>412.3364562988281</v>
+        <v>408.5130310058594</v>
       </c>
       <c r="AP19" t="n">
-        <v>412.3364562988281</v>
+        <v>408.5130310058594</v>
       </c>
       <c r="AQ19" t="n">
-        <v>439.841552734375</v>
+        <v>464.3658142089844</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>306.8376770019531</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:44">
       <c r="A20" s="2" t="n">
         <v>43182</v>
       </c>
@@ -3099,34 +3159,37 @@
         <v>274</v>
       </c>
       <c r="AI20" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ20" t="n">
-        <v>515.3012084960938</v>
+        <v>478.6197814941406</v>
       </c>
       <c r="AK20" t="n">
-        <v>515.9086303710938</v>
+        <v>471.2595520019531</v>
       </c>
       <c r="AL20" t="n">
-        <v>444.4822998046875</v>
+        <v>443.1451416015625</v>
       </c>
       <c r="AM20" t="n">
-        <v>526.2300415039062</v>
+        <v>571.967529296875</v>
       </c>
       <c r="AN20" t="n">
-        <v>416.6463623046875</v>
+        <v>412.7674865722656</v>
       </c>
       <c r="AO20" t="n">
-        <v>420.4849243164062</v>
+        <v>408.5635375976562</v>
       </c>
       <c r="AP20" t="n">
-        <v>420.4849243164062</v>
+        <v>408.5635375976562</v>
       </c>
       <c r="AQ20" t="n">
-        <v>515.9086303710938</v>
+        <v>471.2595520019531</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>250.8548889160156</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:44">
       <c r="A21" s="2" t="n">
         <v>43185</v>
       </c>
@@ -3230,34 +3293,37 @@
         <v>81</v>
       </c>
       <c r="AI21" t="n">
-        <v>190.4161529541016</v>
+        <v>195.5765838623047</v>
       </c>
       <c r="AJ21" t="n">
-        <v>390.1520690917969</v>
+        <v>371.1051025390625</v>
       </c>
       <c r="AK21" t="n">
-        <v>306.4612426757812</v>
+        <v>388.1521606445312</v>
       </c>
       <c r="AL21" t="n">
-        <v>391.5821533203125</v>
+        <v>378.5149841308594</v>
       </c>
       <c r="AM21" t="n">
-        <v>313.5860290527344</v>
+        <v>306.8176574707031</v>
       </c>
       <c r="AN21" t="n">
-        <v>298.6964416503906</v>
+        <v>278.7294921875</v>
       </c>
       <c r="AO21" t="n">
-        <v>408.7597961425781</v>
+        <v>265.6343688964844</v>
       </c>
       <c r="AP21" t="n">
-        <v>408.7597961425781</v>
+        <v>265.6343688964844</v>
       </c>
       <c r="AQ21" t="n">
-        <v>306.4612426757812</v>
+        <v>388.1521606445312</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>300.2525024414062</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:44">
       <c r="A22" s="2" t="n">
         <v>43186</v>
       </c>
@@ -3361,34 +3427,37 @@
         <v>286</v>
       </c>
       <c r="AI22" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ22" t="n">
-        <v>527.6798706054688</v>
+        <v>571.2322998046875</v>
       </c>
       <c r="AK22" t="n">
-        <v>502.5988159179688</v>
+        <v>448.39892578125</v>
       </c>
       <c r="AL22" t="n">
-        <v>444.3307189941406</v>
+        <v>456.9628295898438</v>
       </c>
       <c r="AM22" t="n">
-        <v>525.1544189453125</v>
+        <v>539.9428100585938</v>
       </c>
       <c r="AN22" t="n">
-        <v>427.8789367675781</v>
+        <v>392.8446655273438</v>
       </c>
       <c r="AO22" t="n">
-        <v>419.3049926757812</v>
+        <v>418.4842834472656</v>
       </c>
       <c r="AP22" t="n">
-        <v>419.3049926757812</v>
+        <v>418.4842834472656</v>
       </c>
       <c r="AQ22" t="n">
-        <v>502.5988159179688</v>
+        <v>448.39892578125</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>321.4384460449219</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:44">
       <c r="A23" s="2" t="n">
         <v>43187</v>
       </c>
@@ -3492,34 +3561,37 @@
         <v>254</v>
       </c>
       <c r="AI23" t="n">
-        <v>417.0910949707031</v>
+        <v>426.5135498046875</v>
       </c>
       <c r="AJ23" t="n">
-        <v>502.9901123046875</v>
+        <v>504.5352478027344</v>
       </c>
       <c r="AK23" t="n">
-        <v>414.8628845214844</v>
+        <v>452.8678894042969</v>
       </c>
       <c r="AL23" t="n">
-        <v>430.810546875</v>
+        <v>421.1693725585938</v>
       </c>
       <c r="AM23" t="n">
-        <v>445.2760314941406</v>
+        <v>454.2380981445312</v>
       </c>
       <c r="AN23" t="n">
-        <v>402.9507141113281</v>
+        <v>347.1206970214844</v>
       </c>
       <c r="AO23" t="n">
-        <v>417.7097778320312</v>
+        <v>396.9656066894531</v>
       </c>
       <c r="AP23" t="n">
-        <v>417.7097778320312</v>
+        <v>396.9656066894531</v>
       </c>
       <c r="AQ23" t="n">
-        <v>414.8628845214844</v>
+        <v>452.8678894042969</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>277.6943969726562</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:44">
       <c r="A24" s="2" t="n">
         <v>43188</v>
       </c>
@@ -3623,36 +3695,39 @@
         <v>294</v>
       </c>
       <c r="AI24" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ24" t="n">
-        <v>449.1903381347656</v>
+        <v>457.0487060546875</v>
       </c>
       <c r="AK24" t="n">
-        <v>511.812255859375</v>
+        <v>444.5578002929688</v>
       </c>
       <c r="AL24" t="n">
-        <v>436.9983215332031</v>
+        <v>414.6495056152344</v>
       </c>
       <c r="AM24" t="n">
-        <v>458.896484375</v>
+        <v>492.5946960449219</v>
       </c>
       <c r="AN24" t="n">
-        <v>399.5969848632812</v>
+        <v>379.4861145019531</v>
       </c>
       <c r="AO24" t="n">
-        <v>419.9257202148438</v>
+        <v>393.2061767578125</v>
       </c>
       <c r="AP24" t="n">
-        <v>419.9257202148438</v>
+        <v>393.2061767578125</v>
       </c>
       <c r="AQ24" t="n">
-        <v>511.812255859375</v>
+        <v>444.5578002929688</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>269.0960693359375</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:44">
       <c r="A25" s="2" t="n">
-        <v>43135</v>
+        <v>43192</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -3754,36 +3829,39 @@
         <v>104</v>
       </c>
       <c r="AI25" t="n">
-        <v>215.4361724853516</v>
+        <v>223.4056701660156</v>
       </c>
       <c r="AJ25" t="n">
-        <v>329.8930053710938</v>
+        <v>294.7342834472656</v>
       </c>
       <c r="AK25" t="n">
-        <v>288.2593078613281</v>
+        <v>379.0037841796875</v>
       </c>
       <c r="AL25" t="n">
-        <v>383.9357299804688</v>
+        <v>329.6978454589844</v>
       </c>
       <c r="AM25" t="n">
-        <v>314.9354858398438</v>
+        <v>278.5053100585938</v>
       </c>
       <c r="AN25" t="n">
-        <v>356.3330993652344</v>
+        <v>318.6067199707031</v>
       </c>
       <c r="AO25" t="n">
-        <v>426.6418151855469</v>
+        <v>304.1543579101562</v>
       </c>
       <c r="AP25" t="n">
-        <v>426.6418151855469</v>
+        <v>304.1543579101562</v>
       </c>
       <c r="AQ25" t="n">
-        <v>288.2593078613281</v>
+        <v>379.0037841796875</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>284.1688232421875</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:44">
       <c r="A26" s="2" t="n">
-        <v>43163</v>
+        <v>43193</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -3885,34 +3963,37 @@
         <v>245</v>
       </c>
       <c r="AI26" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ26" t="n">
-        <v>538.0712280273438</v>
+        <v>530.3487548828125</v>
       </c>
       <c r="AK26" t="n">
-        <v>450.2301635742188</v>
+        <v>424.85400390625</v>
       </c>
       <c r="AL26" t="n">
-        <v>444.3376159667969</v>
+        <v>464.0788879394531</v>
       </c>
       <c r="AM26" t="n">
-        <v>487.5825805664062</v>
+        <v>491.7577514648438</v>
       </c>
       <c r="AN26" t="n">
-        <v>427.9197998046875</v>
+        <v>427.6226196289062</v>
       </c>
       <c r="AO26" t="n">
-        <v>438.1573181152344</v>
+        <v>430.8995971679688</v>
       </c>
       <c r="AP26" t="n">
-        <v>438.1573181152344</v>
+        <v>430.8995971679688</v>
       </c>
       <c r="AQ26" t="n">
-        <v>450.2301635742188</v>
+        <v>424.85400390625</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>290.2023010253906</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:44">
       <c r="A27" s="2" t="n">
         <v>43194</v>
       </c>
@@ -4016,36 +4097,39 @@
         <v>266</v>
       </c>
       <c r="AI27" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ27" t="n">
-        <v>503.0020751953125</v>
+        <v>475.5910339355469</v>
       </c>
       <c r="AK27" t="n">
-        <v>421.9620361328125</v>
+        <v>454.8567810058594</v>
       </c>
       <c r="AL27" t="n">
-        <v>433.2484130859375</v>
+        <v>418.3403625488281</v>
       </c>
       <c r="AM27" t="n">
-        <v>450.4474487304688</v>
+        <v>473.911376953125</v>
       </c>
       <c r="AN27" t="n">
-        <v>459.8497009277344</v>
+        <v>402.3063659667969</v>
       </c>
       <c r="AO27" t="n">
-        <v>424.7991638183594</v>
+        <v>429.0408630371094</v>
       </c>
       <c r="AP27" t="n">
-        <v>424.7991638183594</v>
+        <v>429.0408630371094</v>
       </c>
       <c r="AQ27" t="n">
-        <v>421.9620361328125</v>
+        <v>454.8567810058594</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>252.4884796142578</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:44">
       <c r="A28" s="2" t="n">
-        <v>43224</v>
+        <v>43195</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -4147,36 +4231,39 @@
         <v>217</v>
       </c>
       <c r="AI28" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ28" t="n">
-        <v>477.4682006835938</v>
+        <v>478.9243469238281</v>
       </c>
       <c r="AK28" t="n">
-        <v>477.0711059570312</v>
+        <v>434.6619873046875</v>
       </c>
       <c r="AL28" t="n">
-        <v>441.2250671386719</v>
+        <v>442.1202087402344</v>
       </c>
       <c r="AM28" t="n">
-        <v>438.3659973144531</v>
+        <v>422.6173095703125</v>
       </c>
       <c r="AN28" t="n">
-        <v>437.5372314453125</v>
+        <v>405.5437316894531</v>
       </c>
       <c r="AO28" t="n">
-        <v>426.9253234863281</v>
+        <v>406.8908386230469</v>
       </c>
       <c r="AP28" t="n">
-        <v>426.9253234863281</v>
+        <v>406.8908386230469</v>
       </c>
       <c r="AQ28" t="n">
-        <v>477.0711059570312</v>
+        <v>434.6619873046875</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>256.9448547363281</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:44">
       <c r="A29" s="2" t="n">
-        <v>43255</v>
+        <v>43196</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -4278,36 +4365,39 @@
         <v>134</v>
       </c>
       <c r="AI29" t="n">
-        <v>364.6171569824219</v>
+        <v>371.9555358886719</v>
       </c>
       <c r="AJ29" t="n">
-        <v>375.4794006347656</v>
+        <v>400.0177307128906</v>
       </c>
       <c r="AK29" t="n">
-        <v>367.83984375</v>
+        <v>438.9689636230469</v>
       </c>
       <c r="AL29" t="n">
-        <v>409.5069580078125</v>
+        <v>342.9593505859375</v>
       </c>
       <c r="AM29" t="n">
-        <v>355.9057922363281</v>
+        <v>331.7073669433594</v>
       </c>
       <c r="AN29" t="n">
-        <v>390.6551513671875</v>
+        <v>384.1001586914062</v>
       </c>
       <c r="AO29" t="n">
-        <v>440.9951171875</v>
+        <v>354.0764465332031</v>
       </c>
       <c r="AP29" t="n">
-        <v>440.9951171875</v>
+        <v>354.0764465332031</v>
       </c>
       <c r="AQ29" t="n">
-        <v>367.83984375</v>
+        <v>438.9689636230469</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>267.4503784179688</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:44">
       <c r="A30" s="2" t="n">
-        <v>43347</v>
+        <v>43199</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -4409,36 +4499,39 @@
         <v>233</v>
       </c>
       <c r="AI30" t="n">
-        <v>293.43505859375</v>
+        <v>304.9861450195312</v>
       </c>
       <c r="AJ30" t="n">
-        <v>452.0004272460938</v>
+        <v>426.2755432128906</v>
       </c>
       <c r="AK30" t="n">
-        <v>387.0392761230469</v>
+        <v>417.9820861816406</v>
       </c>
       <c r="AL30" t="n">
-        <v>385.09326171875</v>
+        <v>393.3164367675781</v>
       </c>
       <c r="AM30" t="n">
-        <v>382.7793884277344</v>
+        <v>420.0597534179688</v>
       </c>
       <c r="AN30" t="n">
-        <v>359.5382385253906</v>
+        <v>325.3243103027344</v>
       </c>
       <c r="AO30" t="n">
-        <v>429.1906433105469</v>
+        <v>316.9636840820312</v>
       </c>
       <c r="AP30" t="n">
-        <v>429.1906433105469</v>
+        <v>316.9636840820312</v>
       </c>
       <c r="AQ30" t="n">
-        <v>387.0392761230469</v>
+        <v>417.9820861816406</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>238.8985900878906</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:44">
       <c r="A31" s="2" t="n">
-        <v>43377</v>
+        <v>43200</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -4540,36 +4633,39 @@
         <v>280</v>
       </c>
       <c r="AI31" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ31" t="n">
-        <v>526.79248046875</v>
+        <v>565.8283081054688</v>
       </c>
       <c r="AK31" t="n">
-        <v>503.4258728027344</v>
+        <v>448.8002319335938</v>
       </c>
       <c r="AL31" t="n">
-        <v>447.4193420410156</v>
+        <v>470.6773071289062</v>
       </c>
       <c r="AM31" t="n">
-        <v>552.2592163085938</v>
+        <v>512.78662109375</v>
       </c>
       <c r="AN31" t="n">
-        <v>429.7003173828125</v>
+        <v>376.7789611816406</v>
       </c>
       <c r="AO31" t="n">
-        <v>420.2535400390625</v>
+        <v>443.8246459960938</v>
       </c>
       <c r="AP31" t="n">
-        <v>420.2535400390625</v>
+        <v>443.8246459960938</v>
       </c>
       <c r="AQ31" t="n">
-        <v>503.4258728027344</v>
+        <v>448.8002319335938</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>223.8108673095703</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:44">
       <c r="A32" s="2" t="n">
-        <v>43408</v>
+        <v>43201</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -4671,36 +4767,39 @@
         <v>251</v>
       </c>
       <c r="AI32" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ32" t="n">
-        <v>519.6572875976562</v>
+        <v>557.9373168945312</v>
       </c>
       <c r="AK32" t="n">
-        <v>431.3803405761719</v>
+        <v>450.508056640625</v>
       </c>
       <c r="AL32" t="n">
-        <v>432.4362487792969</v>
+        <v>422.5610046386719</v>
       </c>
       <c r="AM32" t="n">
-        <v>455.2714538574219</v>
+        <v>484.9775390625</v>
       </c>
       <c r="AN32" t="n">
-        <v>433.9717407226562</v>
+        <v>406.5415344238281</v>
       </c>
       <c r="AO32" t="n">
-        <v>404.6832580566406</v>
+        <v>419.1698913574219</v>
       </c>
       <c r="AP32" t="n">
-        <v>404.6832580566406</v>
+        <v>419.1698913574219</v>
       </c>
       <c r="AQ32" t="n">
-        <v>431.3803405761719</v>
+        <v>450.508056640625</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>214.7015991210938</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:44">
       <c r="A33" s="2" t="n">
-        <v>43438</v>
+        <v>43202</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -4802,34 +4901,37 @@
         <v>262</v>
       </c>
       <c r="AI33" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ33" t="n">
-        <v>493.0822448730469</v>
+        <v>480.380859375</v>
       </c>
       <c r="AK33" t="n">
-        <v>500.1572570800781</v>
+        <v>468.0116882324219</v>
       </c>
       <c r="AL33" t="n">
-        <v>440.19873046875</v>
+        <v>429.3299560546875</v>
       </c>
       <c r="AM33" t="n">
-        <v>480.7479248046875</v>
+        <v>503.4849548339844</v>
       </c>
       <c r="AN33" t="n">
-        <v>459.4398498535156</v>
+        <v>399.8481750488281</v>
       </c>
       <c r="AO33" t="n">
-        <v>416.2420959472656</v>
+        <v>424.3906555175781</v>
       </c>
       <c r="AP33" t="n">
-        <v>416.2420959472656</v>
+        <v>424.3906555175781</v>
       </c>
       <c r="AQ33" t="n">
-        <v>500.1572570800781</v>
+        <v>468.0116882324219</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>264.5914001464844</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:44">
       <c r="A34" s="2" t="n">
         <v>43203</v>
       </c>
@@ -4933,34 +5035,37 @@
         <v>93</v>
       </c>
       <c r="AI34" t="n">
-        <v>353.4607543945312</v>
+        <v>360.3991088867188</v>
       </c>
       <c r="AJ34" t="n">
-        <v>306.5361938476562</v>
+        <v>382.2178039550781</v>
       </c>
       <c r="AK34" t="n">
-        <v>353.0111694335938</v>
+        <v>425.2893676757812</v>
       </c>
       <c r="AL34" t="n">
-        <v>417.2556762695312</v>
+        <v>330.9645080566406</v>
       </c>
       <c r="AM34" t="n">
-        <v>329.6745910644531</v>
+        <v>314.7503967285156</v>
       </c>
       <c r="AN34" t="n">
-        <v>364.9602661132812</v>
+        <v>333.7282104492188</v>
       </c>
       <c r="AO34" t="n">
-        <v>424.9814147949219</v>
+        <v>339.6002197265625</v>
       </c>
       <c r="AP34" t="n">
-        <v>424.9814147949219</v>
+        <v>339.6002197265625</v>
       </c>
       <c r="AQ34" t="n">
-        <v>353.0111694335938</v>
+        <v>425.2893676757812</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>257.8251037597656</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:44">
       <c r="A35" s="2" t="n">
         <v>43206</v>
       </c>
@@ -5064,34 +5169,37 @@
         <v>254</v>
       </c>
       <c r="AI35" t="n">
-        <v>332.6814880371094</v>
+        <v>340.929931640625</v>
       </c>
       <c r="AJ35" t="n">
-        <v>403.9470825195312</v>
+        <v>400.4624633789062</v>
       </c>
       <c r="AK35" t="n">
-        <v>411.5047607421875</v>
+        <v>411.7933349609375</v>
       </c>
       <c r="AL35" t="n">
-        <v>382.6876220703125</v>
+        <v>391.1245422363281</v>
       </c>
       <c r="AM35" t="n">
-        <v>406.5437927246094</v>
+        <v>434.3267822265625</v>
       </c>
       <c r="AN35" t="n">
-        <v>369.8766174316406</v>
+        <v>346.8052978515625</v>
       </c>
       <c r="AO35" t="n">
-        <v>420.7399597167969</v>
+        <v>333.7030334472656</v>
       </c>
       <c r="AP35" t="n">
-        <v>420.7399597167969</v>
+        <v>333.7030334472656</v>
       </c>
       <c r="AQ35" t="n">
-        <v>411.5047607421875</v>
+        <v>411.7933349609375</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>283.9800720214844</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:44">
       <c r="A36" s="2" t="n">
         <v>43207</v>
       </c>
@@ -5195,34 +5303,37 @@
         <v>277</v>
       </c>
       <c r="AI36" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ36" t="n">
-        <v>530.3446044921875</v>
+        <v>532.986083984375</v>
       </c>
       <c r="AK36" t="n">
-        <v>490.5422058105469</v>
+        <v>445.18359375</v>
       </c>
       <c r="AL36" t="n">
-        <v>443.2809753417969</v>
+        <v>456.3704833984375</v>
       </c>
       <c r="AM36" t="n">
-        <v>517.2139892578125</v>
+        <v>496.7589111328125</v>
       </c>
       <c r="AN36" t="n">
-        <v>419.5199890136719</v>
+        <v>380.7767639160156</v>
       </c>
       <c r="AO36" t="n">
-        <v>394.3701171875</v>
+        <v>430.3794860839844</v>
       </c>
       <c r="AP36" t="n">
-        <v>394.3701171875</v>
+        <v>430.3794860839844</v>
       </c>
       <c r="AQ36" t="n">
-        <v>490.5422058105469</v>
+        <v>445.18359375</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>242.2578125</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:44">
       <c r="A37" s="2" t="n">
         <v>43208</v>
       </c>
@@ -5326,34 +5437,37 @@
         <v>246</v>
       </c>
       <c r="AI37" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ37" t="n">
-        <v>526.3563842773438</v>
+        <v>532.6957397460938</v>
       </c>
       <c r="AK37" t="n">
-        <v>426.9134826660156</v>
+        <v>448.7850646972656</v>
       </c>
       <c r="AL37" t="n">
-        <v>437.6595153808594</v>
+        <v>424.42919921875</v>
       </c>
       <c r="AM37" t="n">
-        <v>449.8782958984375</v>
+        <v>472.9918518066406</v>
       </c>
       <c r="AN37" t="n">
-        <v>442.6334838867188</v>
+        <v>391.13134765625</v>
       </c>
       <c r="AO37" t="n">
-        <v>391.2220764160156</v>
+        <v>417.2897338867188</v>
       </c>
       <c r="AP37" t="n">
-        <v>391.2220764160156</v>
+        <v>417.2897338867188</v>
       </c>
       <c r="AQ37" t="n">
-        <v>426.9134826660156</v>
+        <v>448.7850646972656</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>237.9743194580078</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:44">
       <c r="A38" s="2" t="n">
         <v>43209</v>
       </c>
@@ -5457,34 +5571,37 @@
         <v>260</v>
       </c>
       <c r="AI38" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ38" t="n">
-        <v>458.0198059082031</v>
+        <v>449.0682067871094</v>
       </c>
       <c r="AK38" t="n">
-        <v>483.6190185546875</v>
+        <v>450.903564453125</v>
       </c>
       <c r="AL38" t="n">
-        <v>436.4210205078125</v>
+        <v>426.1491394042969</v>
       </c>
       <c r="AM38" t="n">
-        <v>467.6432495117188</v>
+        <v>494.3966064453125</v>
       </c>
       <c r="AN38" t="n">
-        <v>445.2220153808594</v>
+        <v>426.1886901855469</v>
       </c>
       <c r="AO38" t="n">
-        <v>382.2477722167969</v>
+        <v>412.5642700195312</v>
       </c>
       <c r="AP38" t="n">
-        <v>382.2477722167969</v>
+        <v>412.5642700195312</v>
       </c>
       <c r="AQ38" t="n">
-        <v>483.6190185546875</v>
+        <v>450.903564453125</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>239.2304992675781</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:44">
       <c r="A39" s="2" t="n">
         <v>43210</v>
       </c>
@@ -5588,34 +5705,37 @@
         <v>91</v>
       </c>
       <c r="AI39" t="n">
-        <v>370.9029846191406</v>
+        <v>377.0586547851562</v>
       </c>
       <c r="AJ39" t="n">
-        <v>324.2953796386719</v>
+        <v>377.0067443847656</v>
       </c>
       <c r="AK39" t="n">
-        <v>360.4779052734375</v>
+        <v>408.3402404785156</v>
       </c>
       <c r="AL39" t="n">
-        <v>366.1782531738281</v>
+        <v>308.7520141601562</v>
       </c>
       <c r="AM39" t="n">
-        <v>325.0319213867188</v>
+        <v>320.1621398925781</v>
       </c>
       <c r="AN39" t="n">
-        <v>354.2912292480469</v>
+        <v>348.451904296875</v>
       </c>
       <c r="AO39" t="n">
-        <v>397.35986328125</v>
+        <v>332.6116333007812</v>
       </c>
       <c r="AP39" t="n">
-        <v>397.35986328125</v>
+        <v>332.6116333007812</v>
       </c>
       <c r="AQ39" t="n">
-        <v>360.4779052734375</v>
+        <v>408.3402404785156</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>261.2887268066406</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:44">
       <c r="A40" s="2" t="n">
         <v>43213</v>
       </c>
@@ -5719,34 +5839,37 @@
         <v>224</v>
       </c>
       <c r="AI40" t="n">
-        <v>292.0090942382812</v>
+        <v>299.9596862792969</v>
       </c>
       <c r="AJ40" t="n">
-        <v>416.130859375</v>
+        <v>378.429443359375</v>
       </c>
       <c r="AK40" t="n">
-        <v>385.7178344726562</v>
+        <v>397.62255859375</v>
       </c>
       <c r="AL40" t="n">
-        <v>367.5826721191406</v>
+        <v>380.401611328125</v>
       </c>
       <c r="AM40" t="n">
-        <v>382.4332580566406</v>
+        <v>398.8978271484375</v>
       </c>
       <c r="AN40" t="n">
-        <v>317.4779663085938</v>
+        <v>329.5534057617188</v>
       </c>
       <c r="AO40" t="n">
-        <v>408.4257202148438</v>
+        <v>298.581787109375</v>
       </c>
       <c r="AP40" t="n">
-        <v>408.4257202148438</v>
+        <v>298.581787109375</v>
       </c>
       <c r="AQ40" t="n">
-        <v>385.7178344726562</v>
+        <v>397.62255859375</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>251.2899017333984</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:44">
       <c r="A41" s="2" t="n">
         <v>43214</v>
       </c>
@@ -5850,34 +5973,37 @@
         <v>284</v>
       </c>
       <c r="AI41" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ41" t="n">
-        <v>554.7139892578125</v>
+        <v>543.814453125</v>
       </c>
       <c r="AK41" t="n">
-        <v>499.3657836914062</v>
+        <v>434.9923095703125</v>
       </c>
       <c r="AL41" t="n">
-        <v>443.1573791503906</v>
+        <v>455.7154235839844</v>
       </c>
       <c r="AM41" t="n">
-        <v>524.3427734375</v>
+        <v>502.02392578125</v>
       </c>
       <c r="AN41" t="n">
-        <v>425.93994140625</v>
+        <v>361.5159912109375</v>
       </c>
       <c r="AO41" t="n">
-        <v>390.948974609375</v>
+        <v>434.8820495605469</v>
       </c>
       <c r="AP41" t="n">
-        <v>390.948974609375</v>
+        <v>434.8820495605469</v>
       </c>
       <c r="AQ41" t="n">
-        <v>499.3657836914062</v>
+        <v>434.9923095703125</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>281.76220703125</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:44">
       <c r="A42" s="2" t="n">
         <v>43215</v>
       </c>
@@ -5981,34 +6107,37 @@
         <v>232</v>
       </c>
       <c r="AI42" t="n">
-        <v>394.2816467285156</v>
+        <v>401.9015197753906</v>
       </c>
       <c r="AJ42" t="n">
-        <v>505.9634704589844</v>
+        <v>481.6596984863281</v>
       </c>
       <c r="AK42" t="n">
-        <v>417.5744323730469</v>
+        <v>429.7608337402344</v>
       </c>
       <c r="AL42" t="n">
-        <v>425.43994140625</v>
+        <v>417.0888671875</v>
       </c>
       <c r="AM42" t="n">
-        <v>423.6458740234375</v>
+        <v>454.2379150390625</v>
       </c>
       <c r="AN42" t="n">
-        <v>439.5499572753906</v>
+        <v>351.8123474121094</v>
       </c>
       <c r="AO42" t="n">
-        <v>386.4191589355469</v>
+        <v>410.5474243164062</v>
       </c>
       <c r="AP42" t="n">
-        <v>386.4191589355469</v>
+        <v>410.5474243164062</v>
       </c>
       <c r="AQ42" t="n">
-        <v>417.5744323730469</v>
+        <v>429.7608337402344</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>281.2149658203125</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:44">
       <c r="A43" s="2" t="n">
         <v>43216</v>
       </c>
@@ -6112,34 +6241,37 @@
         <v>236</v>
       </c>
       <c r="AI43" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ43" t="n">
-        <v>439.3707275390625</v>
+        <v>468.3246459960938</v>
       </c>
       <c r="AK43" t="n">
-        <v>494.8418884277344</v>
+        <v>440.9796142578125</v>
       </c>
       <c r="AL43" t="n">
-        <v>443.371337890625</v>
+        <v>440.8975524902344</v>
       </c>
       <c r="AM43" t="n">
-        <v>476.2671203613281</v>
+        <v>505.732421875</v>
       </c>
       <c r="AN43" t="n">
-        <v>465.4850769042969</v>
+        <v>439.2192993164062</v>
       </c>
       <c r="AO43" t="n">
-        <v>385.9134216308594</v>
+        <v>425.0136413574219</v>
       </c>
       <c r="AP43" t="n">
-        <v>385.9134216308594</v>
+        <v>425.0136413574219</v>
       </c>
       <c r="AQ43" t="n">
-        <v>494.8418884277344</v>
+        <v>440.9796142578125</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>302.5637512207031</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:44">
       <c r="A44" s="2" t="n">
         <v>43217</v>
       </c>
@@ -6243,36 +6375,39 @@
         <v>83</v>
       </c>
       <c r="AI44" t="n">
-        <v>365.1834106445312</v>
+        <v>368.6564025878906</v>
       </c>
       <c r="AJ44" t="n">
-        <v>354.9237670898438</v>
+        <v>375.0523986816406</v>
       </c>
       <c r="AK44" t="n">
-        <v>362.2135620117188</v>
+        <v>404.7246704101562</v>
       </c>
       <c r="AL44" t="n">
-        <v>417.2952270507812</v>
+        <v>359.3899230957031</v>
       </c>
       <c r="AM44" t="n">
-        <v>318.8589477539062</v>
+        <v>304.1416931152344</v>
       </c>
       <c r="AN44" t="n">
-        <v>362.9465637207031</v>
+        <v>292.373779296875</v>
       </c>
       <c r="AO44" t="n">
-        <v>387.9818115234375</v>
+        <v>328.3691101074219</v>
       </c>
       <c r="AP44" t="n">
-        <v>387.9818115234375</v>
+        <v>328.3691101074219</v>
       </c>
       <c r="AQ44" t="n">
-        <v>362.2135620117188</v>
+        <v>404.7246704101562</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>259.8962097167969</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:44">
       <c r="A45" s="2" t="n">
-        <v>43136</v>
+        <v>43222</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -6374,36 +6509,39 @@
         <v>222</v>
       </c>
       <c r="AI45" t="n">
-        <v>309.340576171875</v>
+        <v>316.4878845214844</v>
       </c>
       <c r="AJ45" t="n">
-        <v>361.7037963867188</v>
+        <v>388.0864868164062</v>
       </c>
       <c r="AK45" t="n">
-        <v>397.4390258789062</v>
+        <v>401.025390625</v>
       </c>
       <c r="AL45" t="n">
-        <v>377.7116088867188</v>
+        <v>388.9127502441406</v>
       </c>
       <c r="AM45" t="n">
-        <v>398.0733337402344</v>
+        <v>408.7241516113281</v>
       </c>
       <c r="AN45" t="n">
-        <v>387.87646484375</v>
+        <v>309.066650390625</v>
       </c>
       <c r="AO45" t="n">
-        <v>430.2063903808594</v>
+        <v>356.6316223144531</v>
       </c>
       <c r="AP45" t="n">
-        <v>430.2063903808594</v>
+        <v>356.6316223144531</v>
       </c>
       <c r="AQ45" t="n">
-        <v>397.4390258789062</v>
+        <v>401.025390625</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>246.4252014160156</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:44">
       <c r="A46" s="2" t="n">
-        <v>43164</v>
+        <v>43223</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -6505,36 +6643,39 @@
         <v>238</v>
       </c>
       <c r="AI46" t="n">
-        <v>406.4503173828125</v>
+        <v>418.605712890625</v>
       </c>
       <c r="AJ46" t="n">
-        <v>531.3816528320312</v>
+        <v>477.2932739257812</v>
       </c>
       <c r="AK46" t="n">
-        <v>441.0766296386719</v>
+        <v>423.6706237792969</v>
       </c>
       <c r="AL46" t="n">
-        <v>436.4331359863281</v>
+        <v>445.6335144042969</v>
       </c>
       <c r="AM46" t="n">
-        <v>488.6280822753906</v>
+        <v>457.5967102050781</v>
       </c>
       <c r="AN46" t="n">
-        <v>409.2866516113281</v>
+        <v>371.0115051269531</v>
       </c>
       <c r="AO46" t="n">
-        <v>426.4150390625</v>
+        <v>436.4370422363281</v>
       </c>
       <c r="AP46" t="n">
-        <v>426.4150390625</v>
+        <v>436.4370422363281</v>
       </c>
       <c r="AQ46" t="n">
-        <v>441.0766296386719</v>
+        <v>423.6706237792969</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>252.9819488525391</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:44">
       <c r="A47" s="2" t="n">
-        <v>43195</v>
+        <v>43224</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -6636,36 +6777,39 @@
         <v>262</v>
       </c>
       <c r="AI47" t="n">
-        <v>436.9132995605469</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ47" t="n">
-        <v>566.3866577148438</v>
+        <v>521.5693359375</v>
       </c>
       <c r="AK47" t="n">
-        <v>431.5550231933594</v>
+        <v>430.2061157226562</v>
       </c>
       <c r="AL47" t="n">
-        <v>431.0521850585938</v>
+        <v>406.4322814941406</v>
       </c>
       <c r="AM47" t="n">
-        <v>448.7663269042969</v>
+        <v>489.4713745117188</v>
       </c>
       <c r="AN47" t="n">
-        <v>437.7303771972656</v>
+        <v>404.52001953125</v>
       </c>
       <c r="AO47" t="n">
-        <v>415.1969909667969</v>
+        <v>445.1185302734375</v>
       </c>
       <c r="AP47" t="n">
-        <v>415.1969909667969</v>
+        <v>445.1185302734375</v>
       </c>
       <c r="AQ47" t="n">
-        <v>431.5550231933594</v>
+        <v>430.2061157226562</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>235.3809356689453</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:44">
       <c r="A48" s="2" t="n">
-        <v>43286</v>
+        <v>43227</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -6767,36 +6911,39 @@
         <v>250</v>
       </c>
       <c r="AI48" t="n">
-        <v>326.5061950683594</v>
+        <v>334.9686584472656</v>
       </c>
       <c r="AJ48" t="n">
-        <v>389.4302368164062</v>
+        <v>378.6546936035156</v>
       </c>
       <c r="AK48" t="n">
-        <v>418.1058654785156</v>
+        <v>391.551025390625</v>
       </c>
       <c r="AL48" t="n">
-        <v>400.815673828125</v>
+        <v>381.673095703125</v>
       </c>
       <c r="AM48" t="n">
-        <v>362.7209167480469</v>
+        <v>394.1510925292969</v>
       </c>
       <c r="AN48" t="n">
-        <v>398.6787109375</v>
+        <v>355.4792785644531</v>
       </c>
       <c r="AO48" t="n">
-        <v>399.7819519042969</v>
+        <v>373.7245483398438</v>
       </c>
       <c r="AP48" t="n">
-        <v>399.7819519042969</v>
+        <v>373.7245483398438</v>
       </c>
       <c r="AQ48" t="n">
-        <v>418.1058654785156</v>
+        <v>391.551025390625</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>262.8945922851562</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:44">
       <c r="A49" s="2" t="n">
-        <v>43317</v>
+        <v>43228</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -6898,36 +7045,39 @@
         <v>90</v>
       </c>
       <c r="AI49" t="n">
-        <v>389.3399353027344</v>
+        <v>391.2193298339844</v>
       </c>
       <c r="AJ49" t="n">
-        <v>508.822998046875</v>
+        <v>425.1849975585938</v>
       </c>
       <c r="AK49" t="n">
-        <v>404.6221923828125</v>
+        <v>361.4131469726562</v>
       </c>
       <c r="AL49" t="n">
-        <v>438.8177490234375</v>
+        <v>447.5745544433594</v>
       </c>
       <c r="AM49" t="n">
-        <v>437.5512390136719</v>
+        <v>462.080322265625</v>
       </c>
       <c r="AN49" t="n">
-        <v>348.3722229003906</v>
+        <v>320.1568603515625</v>
       </c>
       <c r="AO49" t="n">
-        <v>395.4485168457031</v>
+        <v>368.2137756347656</v>
       </c>
       <c r="AP49" t="n">
-        <v>395.4485168457031</v>
+        <v>368.2137756347656</v>
       </c>
       <c r="AQ49" t="n">
-        <v>404.6221923828125</v>
+        <v>361.4131469726562</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>235.2568664550781</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:44">
       <c r="A50" s="2" t="n">
-        <v>43348</v>
+        <v>43229</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -7029,36 +7179,39 @@
         <v>186</v>
       </c>
       <c r="AI50" t="n">
-        <v>424.1461791992188</v>
+        <v>428.916259765625</v>
       </c>
       <c r="AJ50" t="n">
-        <v>501.7537841796875</v>
+        <v>520.2446899414062</v>
       </c>
       <c r="AK50" t="n">
-        <v>414.9877014160156</v>
+        <v>410.8819885253906</v>
       </c>
       <c r="AL50" t="n">
-        <v>436.1632995605469</v>
+        <v>397.0063171386719</v>
       </c>
       <c r="AM50" t="n">
-        <v>411.493408203125</v>
+        <v>445.2161865234375</v>
       </c>
       <c r="AN50" t="n">
-        <v>422.3600158691406</v>
+        <v>356.8003845214844</v>
       </c>
       <c r="AO50" t="n">
-        <v>401.1298522949219</v>
+        <v>421.1814575195312</v>
       </c>
       <c r="AP50" t="n">
-        <v>401.1298522949219</v>
+        <v>421.1814575195312</v>
       </c>
       <c r="AQ50" t="n">
-        <v>414.9877014160156</v>
+        <v>410.8819885253906</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>226.4925842285156</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:44">
       <c r="A51" s="2" t="n">
-        <v>43378</v>
+        <v>43230</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -7160,36 +7313,39 @@
         <v>249</v>
       </c>
       <c r="AI51" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ51" t="n">
-        <v>429.0423278808594</v>
+        <v>441.8056030273438</v>
       </c>
       <c r="AK51" t="n">
-        <v>475.5850219726562</v>
+        <v>435.8049621582031</v>
       </c>
       <c r="AL51" t="n">
-        <v>438.2472839355469</v>
+        <v>429.8361511230469</v>
       </c>
       <c r="AM51" t="n">
-        <v>451.9356384277344</v>
+        <v>487.1214294433594</v>
       </c>
       <c r="AN51" t="n">
-        <v>440.4481506347656</v>
+        <v>387.3462219238281</v>
       </c>
       <c r="AO51" t="n">
-        <v>375.8388366699219</v>
+        <v>405.7711486816406</v>
       </c>
       <c r="AP51" t="n">
-        <v>375.8388366699219</v>
+        <v>405.7711486816406</v>
       </c>
       <c r="AQ51" t="n">
-        <v>475.5850219726562</v>
+        <v>435.8049621582031</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>198.8222808837891</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:44">
       <c r="A52" s="2" t="n">
-        <v>43409</v>
+        <v>43231</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -7291,34 +7447,37 @@
         <v>94</v>
       </c>
       <c r="AI52" t="n">
-        <v>346.9898681640625</v>
+        <v>352.7480773925781</v>
       </c>
       <c r="AJ52" t="n">
-        <v>341.1985168457031</v>
+        <v>348.1627197265625</v>
       </c>
       <c r="AK52" t="n">
-        <v>347.4836120605469</v>
+        <v>397.73095703125</v>
       </c>
       <c r="AL52" t="n">
-        <v>273.1492614746094</v>
+        <v>295.326416015625</v>
       </c>
       <c r="AM52" t="n">
-        <v>311.5167236328125</v>
+        <v>298.4600830078125</v>
       </c>
       <c r="AN52" t="n">
-        <v>353.0090637207031</v>
+        <v>322.5418395996094</v>
       </c>
       <c r="AO52" t="n">
-        <v>387.4932250976562</v>
+        <v>345.8509521484375</v>
       </c>
       <c r="AP52" t="n">
-        <v>387.4932250976562</v>
+        <v>345.8509521484375</v>
       </c>
       <c r="AQ52" t="n">
-        <v>347.4836120605469</v>
+        <v>397.73095703125</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>209.1631927490234</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:44">
       <c r="A53" s="2" t="n">
         <v>43234</v>
       </c>
@@ -7422,34 +7581,37 @@
         <v>198</v>
       </c>
       <c r="AI53" t="n">
-        <v>280.9513549804688</v>
+        <v>288.3232727050781</v>
       </c>
       <c r="AJ53" t="n">
-        <v>378.0602416992188</v>
+        <v>369.3583984375</v>
       </c>
       <c r="AK53" t="n">
-        <v>360.2141418457031</v>
+        <v>385.7009887695312</v>
       </c>
       <c r="AL53" t="n">
-        <v>370.0978393554688</v>
+        <v>370.7738037109375</v>
       </c>
       <c r="AM53" t="n">
-        <v>363.2621765136719</v>
+        <v>382.5771179199219</v>
       </c>
       <c r="AN53" t="n">
-        <v>346.7074890136719</v>
+        <v>338.2645568847656</v>
       </c>
       <c r="AO53" t="n">
-        <v>392.4253234863281</v>
+        <v>345.2632751464844</v>
       </c>
       <c r="AP53" t="n">
-        <v>392.4253234863281</v>
+        <v>345.2632751464844</v>
       </c>
       <c r="AQ53" t="n">
-        <v>360.2141418457031</v>
+        <v>385.7009887695312</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>270.9349060058594</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:44">
       <c r="A54" s="2" t="n">
         <v>43235</v>
       </c>
@@ -7553,34 +7715,37 @@
         <v>260</v>
       </c>
       <c r="AI54" t="n">
-        <v>440.494384765625</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ54" t="n">
-        <v>478.4013366699219</v>
+        <v>506.8900451660156</v>
       </c>
       <c r="AK54" t="n">
-        <v>457.9752807617188</v>
+        <v>411.0426635742188</v>
       </c>
       <c r="AL54" t="n">
-        <v>437.2445678710938</v>
+        <v>443.9022827148438</v>
       </c>
       <c r="AM54" t="n">
-        <v>472.952880859375</v>
+        <v>450.5532531738281</v>
       </c>
       <c r="AN54" t="n">
-        <v>386.885009765625</v>
+        <v>326.6576232910156</v>
       </c>
       <c r="AO54" t="n">
-        <v>380.4754028320312</v>
+        <v>406.2250061035156</v>
       </c>
       <c r="AP54" t="n">
-        <v>380.4754028320312</v>
+        <v>406.2250061035156</v>
       </c>
       <c r="AQ54" t="n">
-        <v>457.9752807617188</v>
+        <v>411.0426635742188</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>239.7159423828125</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:44">
       <c r="A55" s="2" t="n">
         <v>43236</v>
       </c>
@@ -7684,34 +7849,37 @@
         <v>244</v>
       </c>
       <c r="AI55" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ55" t="n">
-        <v>472.1197509765625</v>
+        <v>511.7134399414062</v>
       </c>
       <c r="AK55" t="n">
-        <v>435.760498046875</v>
+        <v>424.5366821289062</v>
       </c>
       <c r="AL55" t="n">
-        <v>436.8301086425781</v>
+        <v>414.9424438476562</v>
       </c>
       <c r="AM55" t="n">
-        <v>430.3111572265625</v>
+        <v>458.6824645996094</v>
       </c>
       <c r="AN55" t="n">
-        <v>438.7529907226562</v>
+        <v>372.1344299316406</v>
       </c>
       <c r="AO55" t="n">
-        <v>376.5772094726562</v>
+        <v>440.231201171875</v>
       </c>
       <c r="AP55" t="n">
-        <v>376.5772094726562</v>
+        <v>440.231201171875</v>
       </c>
       <c r="AQ55" t="n">
-        <v>435.760498046875</v>
+        <v>424.5366821289062</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>267.8716735839844</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:44">
       <c r="A56" s="2" t="n">
         <v>43237</v>
       </c>
@@ -7815,34 +7983,37 @@
         <v>230</v>
       </c>
       <c r="AI56" t="n">
-        <v>406.1182556152344</v>
+        <v>414.3290405273438</v>
       </c>
       <c r="AJ56" t="n">
-        <v>400.8731689453125</v>
+        <v>374.2106323242188</v>
       </c>
       <c r="AK56" t="n">
-        <v>452.8904724121094</v>
+        <v>423.5692443847656</v>
       </c>
       <c r="AL56" t="n">
-        <v>427.8663635253906</v>
+        <v>409.5395812988281</v>
       </c>
       <c r="AM56" t="n">
-        <v>430.5329284667969</v>
+        <v>457.5194702148438</v>
       </c>
       <c r="AN56" t="n">
-        <v>444.2272033691406</v>
+        <v>425.2510375976562</v>
       </c>
       <c r="AO56" t="n">
-        <v>370.9441223144531</v>
+        <v>435.6929931640625</v>
       </c>
       <c r="AP56" t="n">
-        <v>370.9441223144531</v>
+        <v>435.6929931640625</v>
       </c>
       <c r="AQ56" t="n">
-        <v>452.8904724121094</v>
+        <v>423.5692443847656</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>264.3526000976562</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:44">
       <c r="A57" s="2" t="n">
         <v>43238</v>
       </c>
@@ -7946,34 +8117,37 @@
         <v>83</v>
       </c>
       <c r="AI57" t="n">
-        <v>398.9637756347656</v>
+        <v>401.5757141113281</v>
       </c>
       <c r="AJ57" t="n">
-        <v>297.6619567871094</v>
+        <v>370.7111511230469</v>
       </c>
       <c r="AK57" t="n">
-        <v>376.5864868164062</v>
+        <v>391.1497192382812</v>
       </c>
       <c r="AL57" t="n">
-        <v>408.3872375488281</v>
+        <v>367.5390014648438</v>
       </c>
       <c r="AM57" t="n">
-        <v>313.6789245605469</v>
+        <v>338.7526245117188</v>
       </c>
       <c r="AN57" t="n">
-        <v>352.5327453613281</v>
+        <v>353.4942321777344</v>
       </c>
       <c r="AO57" t="n">
-        <v>369.7959289550781</v>
+        <v>366.4284362792969</v>
       </c>
       <c r="AP57" t="n">
-        <v>369.7959289550781</v>
+        <v>366.4284362792969</v>
       </c>
       <c r="AQ57" t="n">
-        <v>376.5864868164062</v>
+        <v>391.1497192382812</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>220.0492095947266</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:44">
       <c r="A58" s="2" t="n">
         <v>43241</v>
       </c>
@@ -8077,34 +8251,37 @@
         <v>204</v>
       </c>
       <c r="AI58" t="n">
-        <v>257.7006225585938</v>
+        <v>268.024658203125</v>
       </c>
       <c r="AJ58" t="n">
-        <v>321.2854309082031</v>
+        <v>360.9938354492188</v>
       </c>
       <c r="AK58" t="n">
-        <v>348.8504028320312</v>
+        <v>388.4582214355469</v>
       </c>
       <c r="AL58" t="n">
-        <v>380.61669921875</v>
+        <v>374.3225402832031</v>
       </c>
       <c r="AM58" t="n">
-        <v>351.6407165527344</v>
+        <v>360.1815795898438</v>
       </c>
       <c r="AN58" t="n">
-        <v>348.8244934082031</v>
+        <v>345.5433044433594</v>
       </c>
       <c r="AO58" t="n">
-        <v>368.0455322265625</v>
+        <v>349.1742858886719</v>
       </c>
       <c r="AP58" t="n">
-        <v>368.0455322265625</v>
+        <v>349.1742858886719</v>
       </c>
       <c r="AQ58" t="n">
-        <v>348.8504028320312</v>
+        <v>388.4582214355469</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>248.5478363037109</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:44">
       <c r="A59" s="2" t="n">
         <v>43242</v>
       </c>
@@ -8208,34 +8385,37 @@
         <v>274</v>
       </c>
       <c r="AI59" t="n">
-        <v>442.78564453125</v>
+        <v>442.2562866210938</v>
       </c>
       <c r="AJ59" t="n">
-        <v>488.6907043457031</v>
+        <v>487.1855163574219</v>
       </c>
       <c r="AK59" t="n">
-        <v>495.9685974121094</v>
+        <v>414.771728515625</v>
       </c>
       <c r="AL59" t="n">
-        <v>442.8419189453125</v>
+        <v>450.7173156738281</v>
       </c>
       <c r="AM59" t="n">
-        <v>477.8240966796875</v>
+        <v>488.6904602050781</v>
       </c>
       <c r="AN59" t="n">
-        <v>412.9599914550781</v>
+        <v>405.24267578125</v>
       </c>
       <c r="AO59" t="n">
-        <v>373.8353576660156</v>
+        <v>446.7908020019531</v>
       </c>
       <c r="AP59" t="n">
-        <v>373.8353576660156</v>
+        <v>446.7908020019531</v>
       </c>
       <c r="AQ59" t="n">
-        <v>495.9685974121094</v>
+        <v>414.771728515625</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>256.9695129394531</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:44">
       <c r="A60" s="2" t="n">
         <v>43243</v>
       </c>
@@ -8339,34 +8519,37 @@
         <v>197</v>
       </c>
       <c r="AI60" t="n">
-        <v>384.6082153320312</v>
+        <v>393.6124572753906</v>
       </c>
       <c r="AJ60" t="n">
-        <v>437.2227172851562</v>
+        <v>448.845703125</v>
       </c>
       <c r="AK60" t="n">
-        <v>378.7164916992188</v>
+        <v>414.8094177246094</v>
       </c>
       <c r="AL60" t="n">
-        <v>424.1115112304688</v>
+        <v>400.5207214355469</v>
       </c>
       <c r="AM60" t="n">
-        <v>401.1440734863281</v>
+        <v>408.1910705566406</v>
       </c>
       <c r="AN60" t="n">
-        <v>415.4876708984375</v>
+        <v>382.9037170410156</v>
       </c>
       <c r="AO60" t="n">
-        <v>373.9609985351562</v>
+        <v>410.7697143554688</v>
       </c>
       <c r="AP60" t="n">
-        <v>373.9609985351562</v>
+        <v>410.7697143554688</v>
       </c>
       <c r="AQ60" t="n">
-        <v>378.7164916992188</v>
+        <v>414.8094177246094</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>260.5730590820312</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:44">
       <c r="A61" s="2" t="n">
         <v>43244</v>
       </c>
@@ -8470,36 +8653,39 @@
         <v>269</v>
       </c>
       <c r="AI61" t="n">
-        <v>364.2536926269531</v>
+        <v>376.7195129394531</v>
       </c>
       <c r="AJ61" t="n">
-        <v>412.7901000976562</v>
+        <v>357.8696594238281</v>
       </c>
       <c r="AK61" t="n">
-        <v>401.0624694824219</v>
+        <v>408.5465698242188</v>
       </c>
       <c r="AL61" t="n">
-        <v>412.1929626464844</v>
+        <v>391.6632690429688</v>
       </c>
       <c r="AM61" t="n">
-        <v>403.4225769042969</v>
+        <v>408.3023376464844</v>
       </c>
       <c r="AN61" t="n">
-        <v>398.4469909667969</v>
+        <v>354.6145324707031</v>
       </c>
       <c r="AO61" t="n">
-        <v>376.4262390136719</v>
+        <v>328.8503112792969</v>
       </c>
       <c r="AP61" t="n">
-        <v>376.4262390136719</v>
+        <v>328.8503112792969</v>
       </c>
       <c r="AQ61" t="n">
-        <v>401.0624694824219</v>
+        <v>408.5465698242188</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>265.3264465332031</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:44">
       <c r="A62" s="2" t="n">
-        <v>43196</v>
+        <v>43255</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -8601,36 +8787,39 @@
         <v>104</v>
       </c>
       <c r="AI62" t="n">
-        <v>156.3192596435547</v>
+        <v>156.5358276367188</v>
       </c>
       <c r="AJ62" t="n">
-        <v>348.2740478515625</v>
+        <v>413.528076171875</v>
       </c>
       <c r="AK62" t="n">
-        <v>256.7459411621094</v>
+        <v>307.2198181152344</v>
       </c>
       <c r="AL62" t="n">
-        <v>284.3783874511719</v>
+        <v>289.2867126464844</v>
       </c>
       <c r="AM62" t="n">
-        <v>315.0694580078125</v>
+        <v>362.4928894042969</v>
       </c>
       <c r="AN62" t="n">
-        <v>285.7124633789062</v>
+        <v>181.9761962890625</v>
       </c>
       <c r="AO62" t="n">
-        <v>359.6395874023438</v>
+        <v>248.5142211914062</v>
       </c>
       <c r="AP62" t="n">
-        <v>359.6395874023438</v>
+        <v>248.5142211914062</v>
       </c>
       <c r="AQ62" t="n">
-        <v>256.7459411621094</v>
+        <v>307.2198181152344</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>239.1234741210938</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:44">
       <c r="A63" s="2" t="n">
-        <v>43226</v>
+        <v>43256</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -8732,34 +8921,37 @@
         <v>221</v>
       </c>
       <c r="AI63" t="n">
-        <v>397.759765625</v>
+        <v>407.36279296875</v>
       </c>
       <c r="AJ63" t="n">
-        <v>522.71826171875</v>
+        <v>485.7490539550781</v>
       </c>
       <c r="AK63" t="n">
-        <v>468.7046813964844</v>
+        <v>349.8987731933594</v>
       </c>
       <c r="AL63" t="n">
-        <v>440.3404846191406</v>
+        <v>461.6582641601562</v>
       </c>
       <c r="AM63" t="n">
-        <v>459.7230834960938</v>
+        <v>391.6981201171875</v>
       </c>
       <c r="AN63" t="n">
-        <v>351.4335632324219</v>
+        <v>366.1048583984375</v>
       </c>
       <c r="AO63" t="n">
-        <v>371.6492004394531</v>
+        <v>446.8392333984375</v>
       </c>
       <c r="AP63" t="n">
-        <v>371.6492004394531</v>
+        <v>446.8392333984375</v>
       </c>
       <c r="AQ63" t="n">
-        <v>468.7046813964844</v>
+        <v>349.8987731933594</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>258.2808227539062</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:44">
       <c r="A64" s="2" t="n">
         <v>43257</v>
       </c>
@@ -8863,36 +9055,39 @@
         <v>273</v>
       </c>
       <c r="AI64" t="n">
-        <v>391.76123046875</v>
+        <v>397.0426635742188</v>
       </c>
       <c r="AJ64" t="n">
-        <v>397.0328369140625</v>
+        <v>560.2371215820312</v>
       </c>
       <c r="AK64" t="n">
-        <v>460.7377319335938</v>
+        <v>404.2575988769531</v>
       </c>
       <c r="AL64" t="n">
-        <v>426.3802185058594</v>
+        <v>407.8959350585938</v>
       </c>
       <c r="AM64" t="n">
-        <v>375.581298828125</v>
+        <v>415.1882629394531</v>
       </c>
       <c r="AN64" t="n">
-        <v>443.698486328125</v>
+        <v>427.1279296875</v>
       </c>
       <c r="AO64" t="n">
-        <v>354.0960388183594</v>
+        <v>486.9459533691406</v>
       </c>
       <c r="AP64" t="n">
-        <v>354.0960388183594</v>
+        <v>486.9459533691406</v>
       </c>
       <c r="AQ64" t="n">
-        <v>460.7377319335938</v>
+        <v>404.2575988769531</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>258.0215759277344</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:44">
       <c r="A65" s="2" t="n">
-        <v>43287</v>
+        <v>43258</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -8994,36 +9189,39 @@
         <v>131</v>
       </c>
       <c r="AI65" t="n">
-        <v>393.4366149902344</v>
+        <v>403.2875671386719</v>
       </c>
       <c r="AJ65" t="n">
-        <v>384.3406066894531</v>
+        <v>356.7640075683594</v>
       </c>
       <c r="AK65" t="n">
-        <v>449.7777099609375</v>
+        <v>381.7277526855469</v>
       </c>
       <c r="AL65" t="n">
-        <v>437.3852233886719</v>
+        <v>431.2504577636719</v>
       </c>
       <c r="AM65" t="n">
-        <v>445.1632995605469</v>
+        <v>434.2644653320312</v>
       </c>
       <c r="AN65" t="n">
-        <v>430.261474609375</v>
+        <v>465.8012084960938</v>
       </c>
       <c r="AO65" t="n">
-        <v>359.6407165527344</v>
+        <v>476.7156677246094</v>
       </c>
       <c r="AP65" t="n">
-        <v>359.6407165527344</v>
+        <v>476.7156677246094</v>
       </c>
       <c r="AQ65" t="n">
-        <v>449.7777099609375</v>
+        <v>381.7277526855469</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>273.0557250976562</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:44">
       <c r="A66" s="2" t="n">
-        <v>43318</v>
+        <v>43259</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -9125,36 +9323,39 @@
         <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>343.2101135253906</v>
+        <v>340.4949035644531</v>
       </c>
       <c r="AJ66" t="n">
-        <v>266.2461547851562</v>
+        <v>291.5418395996094</v>
       </c>
       <c r="AK66" t="n">
-        <v>321.5395202636719</v>
+        <v>351.9422607421875</v>
       </c>
       <c r="AL66" t="n">
-        <v>282.8486633300781</v>
+        <v>294.878662109375</v>
       </c>
       <c r="AM66" t="n">
-        <v>297.4500732421875</v>
+        <v>310.4465026855469</v>
       </c>
       <c r="AN66" t="n">
-        <v>279.063232421875</v>
+        <v>291.142822265625</v>
       </c>
       <c r="AO66" t="n">
-        <v>355.0482177734375</v>
+        <v>285.9911193847656</v>
       </c>
       <c r="AP66" t="n">
-        <v>355.0482177734375</v>
+        <v>285.9911193847656</v>
       </c>
       <c r="AQ66" t="n">
-        <v>321.5395202636719</v>
+        <v>351.9422607421875</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>211.9448394775391</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:44">
       <c r="A67" s="2" t="n">
-        <v>43410</v>
+        <v>43262</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -9256,36 +9457,39 @@
         <v>192</v>
       </c>
       <c r="AI67" t="n">
-        <v>263.8659973144531</v>
+        <v>268.5214538574219</v>
       </c>
       <c r="AJ67" t="n">
-        <v>351.1041870117188</v>
+        <v>353.5360412597656</v>
       </c>
       <c r="AK67" t="n">
-        <v>343.0975646972656</v>
+        <v>375.9649963378906</v>
       </c>
       <c r="AL67" t="n">
-        <v>354.2459716796875</v>
+        <v>364.0106811523438</v>
       </c>
       <c r="AM67" t="n">
-        <v>345.5216674804688</v>
+        <v>367.9715881347656</v>
       </c>
       <c r="AN67" t="n">
-        <v>342.4156494140625</v>
+        <v>374.4801940917969</v>
       </c>
       <c r="AO67" t="n">
-        <v>377.6810913085938</v>
+        <v>370.8537902832031</v>
       </c>
       <c r="AP67" t="n">
-        <v>377.6810913085938</v>
+        <v>370.8537902832031</v>
       </c>
       <c r="AQ67" t="n">
-        <v>343.0975646972656</v>
+        <v>375.9649963378906</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>294.0403747558594</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:44">
       <c r="A68" s="2" t="n">
-        <v>43440</v>
+        <v>43263</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -9387,34 +9591,37 @@
         <v>259</v>
       </c>
       <c r="AI68" t="n">
-        <v>243.5002593994141</v>
+        <v>250.7699432373047</v>
       </c>
       <c r="AJ68" t="n">
-        <v>324.4289855957031</v>
+        <v>304.9109191894531</v>
       </c>
       <c r="AK68" t="n">
-        <v>336.5021362304688</v>
+        <v>362.9096984863281</v>
       </c>
       <c r="AL68" t="n">
-        <v>279.9125671386719</v>
+        <v>197.580078125</v>
       </c>
       <c r="AM68" t="n">
-        <v>277.7661743164062</v>
+        <v>275.4677734375</v>
       </c>
       <c r="AN68" t="n">
-        <v>288.4330139160156</v>
+        <v>252.9527587890625</v>
       </c>
       <c r="AO68" t="n">
-        <v>355.0016479492188</v>
+        <v>278.4964294433594</v>
       </c>
       <c r="AP68" t="n">
-        <v>355.0016479492188</v>
+        <v>278.4964294433594</v>
       </c>
       <c r="AQ68" t="n">
-        <v>336.5021362304688</v>
+        <v>362.9096984863281</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>255.6087493896484</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:44">
       <c r="A69" s="2" t="n">
         <v>43264</v>
       </c>
@@ -9518,34 +9725,37 @@
         <v>214</v>
       </c>
       <c r="AI69" t="n">
-        <v>212.7515869140625</v>
+        <v>216.5747833251953</v>
       </c>
       <c r="AJ69" t="n">
-        <v>248.9708404541016</v>
+        <v>269.834228515625</v>
       </c>
       <c r="AK69" t="n">
-        <v>254.1002197265625</v>
+        <v>300.6947937011719</v>
       </c>
       <c r="AL69" t="n">
-        <v>288.3039855957031</v>
+        <v>198.8809051513672</v>
       </c>
       <c r="AM69" t="n">
-        <v>189.2197875976562</v>
+        <v>237.7681579589844</v>
       </c>
       <c r="AN69" t="n">
-        <v>253.1545867919922</v>
+        <v>263.4591064453125</v>
       </c>
       <c r="AO69" t="n">
-        <v>339.8933410644531</v>
+        <v>241.4948883056641</v>
       </c>
       <c r="AP69" t="n">
-        <v>339.8933410644531</v>
+        <v>241.4948883056641</v>
       </c>
       <c r="AQ69" t="n">
-        <v>254.1002197265625</v>
+        <v>300.6947937011719</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>278.8395080566406</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:44">
       <c r="A70" s="2" t="n">
         <v>43265</v>
       </c>
@@ -9649,34 +9859,37 @@
         <v>224</v>
       </c>
       <c r="AI70" t="n">
-        <v>357.2221984863281</v>
+        <v>364.8668518066406</v>
       </c>
       <c r="AJ70" t="n">
-        <v>437.9373474121094</v>
+        <v>424.3429565429688</v>
       </c>
       <c r="AK70" t="n">
-        <v>435.668212890625</v>
+        <v>334.2213439941406</v>
       </c>
       <c r="AL70" t="n">
-        <v>429.8585205078125</v>
+        <v>448.6261291503906</v>
       </c>
       <c r="AM70" t="n">
-        <v>359.175537109375</v>
+        <v>399.9329223632812</v>
       </c>
       <c r="AN70" t="n">
-        <v>365.1581726074219</v>
+        <v>332.6398315429688</v>
       </c>
       <c r="AO70" t="n">
-        <v>317.9789428710938</v>
+        <v>407.3732299804688</v>
       </c>
       <c r="AP70" t="n">
-        <v>317.9789428710938</v>
+        <v>407.3732299804688</v>
       </c>
       <c r="AQ70" t="n">
-        <v>435.668212890625</v>
+        <v>334.2213439941406</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>254.4334411621094</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:44">
       <c r="A71" s="2" t="n">
         <v>43266</v>
       </c>
@@ -9780,34 +9993,37 @@
         <v>85</v>
       </c>
       <c r="AI71" t="n">
-        <v>376.1116638183594</v>
+        <v>374.1541748046875</v>
       </c>
       <c r="AJ71" t="n">
-        <v>328.1859130859375</v>
+        <v>367.7267456054688</v>
       </c>
       <c r="AK71" t="n">
-        <v>402.0643920898438</v>
+        <v>325.7929077148438</v>
       </c>
       <c r="AL71" t="n">
-        <v>409.2969055175781</v>
+        <v>342.567138671875</v>
       </c>
       <c r="AM71" t="n">
-        <v>359.4721984863281</v>
+        <v>366.2846984863281</v>
       </c>
       <c r="AN71" t="n">
-        <v>387.6019287109375</v>
+        <v>380.6077575683594</v>
       </c>
       <c r="AO71" t="n">
-        <v>320.931396484375</v>
+        <v>401.1198425292969</v>
       </c>
       <c r="AP71" t="n">
-        <v>320.931396484375</v>
+        <v>401.1198425292969</v>
       </c>
       <c r="AQ71" t="n">
-        <v>402.0643920898438</v>
+        <v>325.7929077148438</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>254.9871368408203</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:44">
       <c r="A72" s="2" t="n">
         <v>43269</v>
       </c>
@@ -9911,34 +10127,37 @@
         <v>46</v>
       </c>
       <c r="AI72" t="n">
-        <v>239.6805725097656</v>
+        <v>241.4896545410156</v>
       </c>
       <c r="AJ72" t="n">
-        <v>391.1050415039062</v>
+        <v>174.9430694580078</v>
       </c>
       <c r="AK72" t="n">
-        <v>305.2413635253906</v>
+        <v>309.225830078125</v>
       </c>
       <c r="AL72" t="n">
-        <v>392.0405883789062</v>
+        <v>319.6824340820312</v>
       </c>
       <c r="AM72" t="n">
-        <v>343.6524047851562</v>
+        <v>299.9879150390625</v>
       </c>
       <c r="AN72" t="n">
-        <v>326.3243408203125</v>
+        <v>301.8040771484375</v>
       </c>
       <c r="AO72" t="n">
-        <v>329.71484375</v>
+        <v>289.2816772460938</v>
       </c>
       <c r="AP72" t="n">
-        <v>329.71484375</v>
+        <v>289.2816772460938</v>
       </c>
       <c r="AQ72" t="n">
-        <v>305.2413635253906</v>
+        <v>309.225830078125</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>260.0770568847656</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:44">
       <c r="A73" s="2" t="n">
         <v>43270</v>
       </c>
@@ -10042,34 +10261,37 @@
         <v>50</v>
       </c>
       <c r="AI73" t="n">
-        <v>267.7333068847656</v>
+        <v>268.8229370117188</v>
       </c>
       <c r="AJ73" t="n">
-        <v>367.3074951171875</v>
+        <v>296.1178894042969</v>
       </c>
       <c r="AK73" t="n">
-        <v>285.9602661132812</v>
+        <v>322.5104675292969</v>
       </c>
       <c r="AL73" t="n">
-        <v>290.5325622558594</v>
+        <v>321.3053283691406</v>
       </c>
       <c r="AM73" t="n">
-        <v>285.3553161621094</v>
+        <v>330.8024291992188</v>
       </c>
       <c r="AN73" t="n">
-        <v>280.7931518554688</v>
+        <v>268.0194702148438</v>
       </c>
       <c r="AO73" t="n">
-        <v>354.2759704589844</v>
+        <v>278.5002746582031</v>
       </c>
       <c r="AP73" t="n">
-        <v>354.2759704589844</v>
+        <v>278.5002746582031</v>
       </c>
       <c r="AQ73" t="n">
-        <v>285.9602661132812</v>
+        <v>322.5104675292969</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>240.8563385009766</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:44">
       <c r="A74" s="2" t="n">
         <v>43271</v>
       </c>
@@ -10173,34 +10395,37 @@
         <v>190</v>
       </c>
       <c r="AI74" t="n">
-        <v>367.3580932617188</v>
+        <v>375.9668884277344</v>
       </c>
       <c r="AJ74" t="n">
-        <v>483.8607177734375</v>
+        <v>446.1979370117188</v>
       </c>
       <c r="AK74" t="n">
-        <v>382.8174133300781</v>
+        <v>380.1845092773438</v>
       </c>
       <c r="AL74" t="n">
-        <v>432.3529663085938</v>
+        <v>398.766845703125</v>
       </c>
       <c r="AM74" t="n">
-        <v>393.27978515625</v>
+        <v>405.4326171875</v>
       </c>
       <c r="AN74" t="n">
-        <v>394.7115173339844</v>
+        <v>421.8382263183594</v>
       </c>
       <c r="AO74" t="n">
-        <v>363.0702514648438</v>
+        <v>428.0119323730469</v>
       </c>
       <c r="AP74" t="n">
-        <v>363.0702514648438</v>
+        <v>428.0119323730469</v>
       </c>
       <c r="AQ74" t="n">
-        <v>382.8174133300781</v>
+        <v>380.1845092773438</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>302.8485412597656</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:44">
       <c r="A75" s="2" t="n">
         <v>43272</v>
       </c>
@@ -10304,34 +10529,37 @@
         <v>242</v>
       </c>
       <c r="AI75" t="n">
-        <v>413.2655029296875</v>
+        <v>419.4176940917969</v>
       </c>
       <c r="AJ75" t="n">
-        <v>388.0726013183594</v>
+        <v>392.4583129882812</v>
       </c>
       <c r="AK75" t="n">
-        <v>423.571044921875</v>
+        <v>383.4285583496094</v>
       </c>
       <c r="AL75" t="n">
-        <v>412.3916320800781</v>
+        <v>415.7812194824219</v>
       </c>
       <c r="AM75" t="n">
-        <v>372.5210266113281</v>
+        <v>407.9180297851562</v>
       </c>
       <c r="AN75" t="n">
-        <v>403.2581481933594</v>
+        <v>394.2228393554688</v>
       </c>
       <c r="AO75" t="n">
-        <v>352.8922729492188</v>
+        <v>381.4984436035156</v>
       </c>
       <c r="AP75" t="n">
-        <v>352.8922729492188</v>
+        <v>381.4984436035156</v>
       </c>
       <c r="AQ75" t="n">
-        <v>423.571044921875</v>
+        <v>383.4285583496094</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>276.0888977050781</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:44">
       <c r="A76" s="2" t="n">
         <v>43273</v>
       </c>
@@ -10435,34 +10663,37 @@
         <v>98</v>
       </c>
       <c r="AI76" t="n">
-        <v>376.1502990722656</v>
+        <v>376.6219177246094</v>
       </c>
       <c r="AJ76" t="n">
-        <v>354.1289978027344</v>
+        <v>360.3045349121094</v>
       </c>
       <c r="AK76" t="n">
-        <v>378.4046325683594</v>
+        <v>365.813720703125</v>
       </c>
       <c r="AL76" t="n">
-        <v>368.5920104980469</v>
+        <v>386.1192932128906</v>
       </c>
       <c r="AM76" t="n">
-        <v>324.8271789550781</v>
+        <v>327.296142578125</v>
       </c>
       <c r="AN76" t="n">
-        <v>361.0281066894531</v>
+        <v>344.1295166015625</v>
       </c>
       <c r="AO76" t="n">
-        <v>349.7807922363281</v>
+        <v>338.0705871582031</v>
       </c>
       <c r="AP76" t="n">
-        <v>349.7807922363281</v>
+        <v>338.0705871582031</v>
       </c>
       <c r="AQ76" t="n">
-        <v>378.4046325683594</v>
+        <v>365.813720703125</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>262.3831176757812</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:44">
       <c r="A77" s="2" t="n">
         <v>43276</v>
       </c>
@@ -10566,34 +10797,37 @@
         <v>127</v>
       </c>
       <c r="AI77" t="n">
-        <v>171.3756103515625</v>
+        <v>165.7837219238281</v>
       </c>
       <c r="AJ77" t="n">
-        <v>290.6530456542969</v>
+        <v>330.1110229492188</v>
       </c>
       <c r="AK77" t="n">
-        <v>311.1373596191406</v>
+        <v>317.2257690429688</v>
       </c>
       <c r="AL77" t="n">
-        <v>248.1556549072266</v>
+        <v>316.3995971679688</v>
       </c>
       <c r="AM77" t="n">
-        <v>310.8779907226562</v>
+        <v>243.6251525878906</v>
       </c>
       <c r="AN77" t="n">
-        <v>284.7880859375</v>
+        <v>234.6102447509766</v>
       </c>
       <c r="AO77" t="n">
-        <v>339.1497802734375</v>
+        <v>307.8163146972656</v>
       </c>
       <c r="AP77" t="n">
-        <v>339.1497802734375</v>
+        <v>307.8163146972656</v>
       </c>
       <c r="AQ77" t="n">
-        <v>311.1373596191406</v>
+        <v>317.2257690429688</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>256.8485107421875</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:44">
       <c r="A78" s="2" t="n">
         <v>43277</v>
       </c>
@@ -10697,34 +10931,37 @@
         <v>224</v>
       </c>
       <c r="AI78" t="n">
-        <v>357.9593811035156</v>
+        <v>365.9304504394531</v>
       </c>
       <c r="AJ78" t="n">
-        <v>517.4490966796875</v>
+        <v>431.4463806152344</v>
       </c>
       <c r="AK78" t="n">
-        <v>464.0634765625</v>
+        <v>358.9202575683594</v>
       </c>
       <c r="AL78" t="n">
-        <v>441.6923828125</v>
+        <v>448.1950073242188</v>
       </c>
       <c r="AM78" t="n">
-        <v>466.7471923828125</v>
+        <v>434.7894287109375</v>
       </c>
       <c r="AN78" t="n">
-        <v>371.2020263671875</v>
+        <v>307.63037109375</v>
       </c>
       <c r="AO78" t="n">
-        <v>338.2356872558594</v>
+        <v>436.4281921386719</v>
       </c>
       <c r="AP78" t="n">
-        <v>338.2356872558594</v>
+        <v>436.4281921386719</v>
       </c>
       <c r="AQ78" t="n">
-        <v>464.0634765625</v>
+        <v>358.9202575683594</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>257.8657531738281</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:44">
       <c r="A79" s="2" t="n">
         <v>43278</v>
       </c>
@@ -10828,34 +11065,37 @@
         <v>177</v>
       </c>
       <c r="AI79" t="n">
-        <v>305.6629943847656</v>
+        <v>313.6702880859375</v>
       </c>
       <c r="AJ79" t="n">
-        <v>219.8572998046875</v>
+        <v>408.3424987792969</v>
       </c>
       <c r="AK79" t="n">
-        <v>363.7234191894531</v>
+        <v>374.853759765625</v>
       </c>
       <c r="AL79" t="n">
-        <v>401.2295532226562</v>
+        <v>362.5047607421875</v>
       </c>
       <c r="AM79" t="n">
-        <v>337.0488586425781</v>
+        <v>269.4767761230469</v>
       </c>
       <c r="AN79" t="n">
-        <v>404.3601684570312</v>
+        <v>309.0258178710938</v>
       </c>
       <c r="AO79" t="n">
-        <v>331.9205017089844</v>
+        <v>440.4822082519531</v>
       </c>
       <c r="AP79" t="n">
-        <v>331.9205017089844</v>
+        <v>440.4822082519531</v>
       </c>
       <c r="AQ79" t="n">
-        <v>363.7234191894531</v>
+        <v>374.853759765625</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>247.3388366699219</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:44">
       <c r="A80" s="2" t="n">
         <v>43279</v>
       </c>
@@ -10959,34 +11199,37 @@
         <v>212</v>
       </c>
       <c r="AI80" t="n">
-        <v>192.0797271728516</v>
+        <v>204.9624328613281</v>
       </c>
       <c r="AJ80" t="n">
-        <v>230.5894622802734</v>
+        <v>240.7285461425781</v>
       </c>
       <c r="AK80" t="n">
-        <v>345.4447631835938</v>
+        <v>314.418701171875</v>
       </c>
       <c r="AL80" t="n">
-        <v>351.5574035644531</v>
+        <v>371.9889221191406</v>
       </c>
       <c r="AM80" t="n">
-        <v>228.0557708740234</v>
+        <v>186.5569152832031</v>
       </c>
       <c r="AN80" t="n">
-        <v>311.716796875</v>
+        <v>351.3021545410156</v>
       </c>
       <c r="AO80" t="n">
-        <v>327.3729248046875</v>
+        <v>337.9934692382812</v>
       </c>
       <c r="AP80" t="n">
-        <v>327.3729248046875</v>
+        <v>337.9934692382812</v>
       </c>
       <c r="AQ80" t="n">
-        <v>345.4447631835938</v>
+        <v>314.418701171875</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>273.7225646972656</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:44">
       <c r="A81" s="2" t="n">
         <v>43280</v>
       </c>
@@ -11090,36 +11333,39 @@
         <v>44</v>
       </c>
       <c r="AI81" t="n">
-        <v>364.0194091796875</v>
+        <v>365.6523742675781</v>
       </c>
       <c r="AJ81" t="n">
-        <v>561.0405883789062</v>
+        <v>312.2596130371094</v>
       </c>
       <c r="AK81" t="n">
-        <v>388.7655944824219</v>
+        <v>295.5056457519531</v>
       </c>
       <c r="AL81" t="n">
-        <v>439.9253845214844</v>
+        <v>455.1153564453125</v>
       </c>
       <c r="AM81" t="n">
-        <v>484.4422912597656</v>
+        <v>470.4075622558594</v>
       </c>
       <c r="AN81" t="n">
-        <v>250.3607330322266</v>
+        <v>184.9321441650391</v>
       </c>
       <c r="AO81" t="n">
-        <v>316.2569274902344</v>
+        <v>302.2889709472656</v>
       </c>
       <c r="AP81" t="n">
-        <v>316.2569274902344</v>
+        <v>302.2889709472656</v>
       </c>
       <c r="AQ81" t="n">
-        <v>388.7655944824219</v>
+        <v>295.5056457519531</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>228.5142974853516</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:44">
       <c r="A82" s="2" t="n">
-        <v>43138</v>
+        <v>43283</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -11221,36 +11467,39 @@
         <v>207</v>
       </c>
       <c r="AI82" t="n">
-        <v>194.3660278320312</v>
+        <v>200.7440795898438</v>
       </c>
       <c r="AJ82" t="n">
-        <v>20.32798767089844</v>
+        <v>286.0505981445312</v>
       </c>
       <c r="AK82" t="n">
-        <v>298.5449829101562</v>
+        <v>316.9086303710938</v>
       </c>
       <c r="AL82" t="n">
-        <v>374.4996337890625</v>
+        <v>298.2384643554688</v>
       </c>
       <c r="AM82" t="n">
-        <v>248.4282684326172</v>
+        <v>215.6090698242188</v>
       </c>
       <c r="AN82" t="n">
-        <v>333.6304016113281</v>
+        <v>353.5348815917969</v>
       </c>
       <c r="AO82" t="n">
-        <v>348.38916015625</v>
+        <v>402.2135009765625</v>
       </c>
       <c r="AP82" t="n">
-        <v>348.38916015625</v>
+        <v>402.2135009765625</v>
       </c>
       <c r="AQ82" t="n">
-        <v>298.5449829101562</v>
+        <v>316.9086303710938</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>283.7488403320312</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:44">
       <c r="A83" s="2" t="n">
-        <v>43166</v>
+        <v>43284</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -11352,36 +11601,39 @@
         <v>243</v>
       </c>
       <c r="AI83" t="n">
-        <v>366.2124328613281</v>
+        <v>366.5583801269531</v>
       </c>
       <c r="AJ83" t="n">
-        <v>324.1293029785156</v>
+        <v>340.0446472167969</v>
       </c>
       <c r="AK83" t="n">
-        <v>357.0430908203125</v>
+        <v>282.9895935058594</v>
       </c>
       <c r="AL83" t="n">
-        <v>214.9833679199219</v>
+        <v>215.2360229492188</v>
       </c>
       <c r="AM83" t="n">
-        <v>169.73095703125</v>
+        <v>36.07051849365234</v>
       </c>
       <c r="AN83" t="n">
-        <v>319.8470153808594</v>
+        <v>269.1995239257812</v>
       </c>
       <c r="AO83" t="n">
-        <v>316.6751403808594</v>
+        <v>373.0231323242188</v>
       </c>
       <c r="AP83" t="n">
-        <v>316.6751403808594</v>
+        <v>373.0231323242188</v>
       </c>
       <c r="AQ83" t="n">
-        <v>357.0430908203125</v>
+        <v>282.9895935058594</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>239.3463134765625</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:44">
       <c r="A84" s="2" t="n">
-        <v>43197</v>
+        <v>43285</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -11483,36 +11735,39 @@
         <v>0</v>
       </c>
       <c r="AI84" t="n">
-        <v>126.4553146362305</v>
+        <v>129.1149597167969</v>
       </c>
       <c r="AJ84" t="n">
-        <v>252.0656280517578</v>
+        <v>158.3451385498047</v>
       </c>
       <c r="AK84" t="n">
-        <v>181.2567749023438</v>
+        <v>245.5672760009766</v>
       </c>
       <c r="AL84" t="n">
-        <v>213.8092346191406</v>
+        <v>323.1478881835938</v>
       </c>
       <c r="AM84" t="n">
-        <v>267.8327026367188</v>
+        <v>242.2522583007812</v>
       </c>
       <c r="AN84" t="n">
-        <v>243.6501922607422</v>
+        <v>220.0076751708984</v>
       </c>
       <c r="AO84" t="n">
-        <v>314.6252746582031</v>
+        <v>307.1720886230469</v>
       </c>
       <c r="AP84" t="n">
-        <v>314.6252746582031</v>
+        <v>307.1720886230469</v>
       </c>
       <c r="AQ84" t="n">
-        <v>181.2567749023438</v>
+        <v>245.5672760009766</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>235.5431823730469</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:44">
       <c r="A85" s="2" t="n">
-        <v>43227</v>
+        <v>43286</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -11614,36 +11869,39 @@
         <v>217</v>
       </c>
       <c r="AI85" t="n">
-        <v>264.5732727050781</v>
+        <v>270.7008972167969</v>
       </c>
       <c r="AJ85" t="n">
-        <v>79.51084136962891</v>
+        <v>356.4790954589844</v>
       </c>
       <c r="AK85" t="n">
-        <v>200.0897064208984</v>
+        <v>272.8094177246094</v>
       </c>
       <c r="AL85" t="n">
-        <v>178.3830413818359</v>
+        <v>184.7602996826172</v>
       </c>
       <c r="AM85" t="n">
-        <v>244.1620941162109</v>
+        <v>144.832763671875</v>
       </c>
       <c r="AN85" t="n">
-        <v>322.7431945800781</v>
+        <v>354.2769165039062</v>
       </c>
       <c r="AO85" t="n">
-        <v>326.8060607910156</v>
+        <v>406.1517639160156</v>
       </c>
       <c r="AP85" t="n">
-        <v>326.8060607910156</v>
+        <v>406.1517639160156</v>
       </c>
       <c r="AQ85" t="n">
-        <v>200.0897064208984</v>
+        <v>272.8094177246094</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>287.4149780273438</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:44">
       <c r="A86" s="2" t="n">
-        <v>43258</v>
+        <v>43287</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -11745,36 +12003,39 @@
         <v>82</v>
       </c>
       <c r="AI86" t="n">
-        <v>137.9073181152344</v>
+        <v>151.9752960205078</v>
       </c>
       <c r="AJ86" t="n">
-        <v>199.8192138671875</v>
+        <v>85.32318115234375</v>
       </c>
       <c r="AK86" t="n">
-        <v>99.92281341552734</v>
+        <v>226.3824615478516</v>
       </c>
       <c r="AL86" t="n">
-        <v>82.85014343261719</v>
+        <v>121.2144165039062</v>
       </c>
       <c r="AM86" t="n">
-        <v>160.8062133789062</v>
+        <v>126.4611892700195</v>
       </c>
       <c r="AN86" t="n">
-        <v>219.3652496337891</v>
+        <v>174.2066345214844</v>
       </c>
       <c r="AO86" t="n">
-        <v>298.3966369628906</v>
+        <v>217.9160003662109</v>
       </c>
       <c r="AP86" t="n">
-        <v>298.3966369628906</v>
+        <v>217.9160003662109</v>
       </c>
       <c r="AQ86" t="n">
-        <v>99.92281341552734</v>
+        <v>226.3824615478516</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>223.9506683349609</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:44">
       <c r="A87" s="2" t="n">
-        <v>43380</v>
+        <v>43291</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -11876,36 +12137,39 @@
         <v>133</v>
       </c>
       <c r="AI87" t="n">
-        <v>199.2454986572266</v>
+        <v>194.8993682861328</v>
       </c>
       <c r="AJ87" t="n">
-        <v>270.843017578125</v>
+        <v>166.8037414550781</v>
       </c>
       <c r="AK87" t="n">
-        <v>175.933837890625</v>
+        <v>186.2017669677734</v>
       </c>
       <c r="AL87" t="n">
-        <v>245.7991638183594</v>
+        <v>196.0604400634766</v>
       </c>
       <c r="AM87" t="n">
-        <v>135.6979675292969</v>
+        <v>188.1937103271484</v>
       </c>
       <c r="AN87" t="n">
-        <v>149.0187072753906</v>
+        <v>206.6749877929688</v>
       </c>
       <c r="AO87" t="n">
-        <v>285.2463073730469</v>
+        <v>157.1260986328125</v>
       </c>
       <c r="AP87" t="n">
-        <v>285.2463073730469</v>
+        <v>157.1260986328125</v>
       </c>
       <c r="AQ87" t="n">
-        <v>175.933837890625</v>
+        <v>186.2017669677734</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>264.9288940429688</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:44">
       <c r="A88" s="2" t="n">
-        <v>43411</v>
+        <v>43292</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -12007,36 +12271,39 @@
         <v>155</v>
       </c>
       <c r="AI88" t="n">
-        <v>114.3217086791992</v>
+        <v>120.5744018554688</v>
       </c>
       <c r="AJ88" t="n">
-        <v>107.651741027832</v>
+        <v>93.65317535400391</v>
       </c>
       <c r="AK88" t="n">
-        <v>131.4193725585938</v>
+        <v>177.923095703125</v>
       </c>
       <c r="AL88" t="n">
-        <v>139.5242462158203</v>
+        <v>163.0208892822266</v>
       </c>
       <c r="AM88" t="n">
-        <v>127.8528442382812</v>
+        <v>175.3394927978516</v>
       </c>
       <c r="AN88" t="n">
-        <v>145.7418365478516</v>
+        <v>178.5180206298828</v>
       </c>
       <c r="AO88" t="n">
-        <v>269.1298217773438</v>
+        <v>111.5076217651367</v>
       </c>
       <c r="AP88" t="n">
-        <v>269.1298217773438</v>
+        <v>111.5076217651367</v>
       </c>
       <c r="AQ88" t="n">
-        <v>131.4193725585938</v>
+        <v>177.923095703125</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>246.7745666503906</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:44">
       <c r="A89" s="2" t="n">
-        <v>43441</v>
+        <v>43293</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -12138,34 +12405,37 @@
         <v>111</v>
       </c>
       <c r="AI89" t="n">
-        <v>123.2036514282227</v>
+        <v>123.6725463867188</v>
       </c>
       <c r="AJ89" t="n">
-        <v>20.32798767089844</v>
+        <v>70.35040283203125</v>
       </c>
       <c r="AK89" t="n">
-        <v>67.19804382324219</v>
+        <v>135.4192504882812</v>
       </c>
       <c r="AL89" t="n">
-        <v>44.9604377746582</v>
+        <v>41.44277191162109</v>
       </c>
       <c r="AM89" t="n">
-        <v>79.23863220214844</v>
+        <v>11.25953102111816</v>
       </c>
       <c r="AN89" t="n">
-        <v>122.7359237670898</v>
+        <v>174.0209808349609</v>
       </c>
       <c r="AO89" t="n">
-        <v>254.1041412353516</v>
+        <v>85.43628692626953</v>
       </c>
       <c r="AP89" t="n">
-        <v>254.1041412353516</v>
+        <v>85.43628692626953</v>
       </c>
       <c r="AQ89" t="n">
-        <v>67.19804382324219</v>
+        <v>135.4192504882812</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>253.1422271728516</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:44">
       <c r="A90" s="2" t="n">
         <v>43294</v>
       </c>
@@ -12269,31 +12539,34 @@
         <v>65</v>
       </c>
       <c r="AI90" t="n">
-        <v>91.54087066650391</v>
+        <v>94.57749176025391</v>
       </c>
       <c r="AJ90" t="n">
-        <v>97.69448852539062</v>
+        <v>18.7280158996582</v>
       </c>
       <c r="AK90" t="n">
-        <v>38.32448959350586</v>
+        <v>109.7157592773438</v>
       </c>
       <c r="AL90" t="n">
-        <v>25.7503776550293</v>
+        <v>31.46653175354004</v>
       </c>
       <c r="AM90" t="n">
-        <v>41.55625915527344</v>
+        <v>-15.11409664154053</v>
       </c>
       <c r="AN90" t="n">
-        <v>94.38226318359375</v>
+        <v>130.2380065917969</v>
       </c>
       <c r="AO90" t="n">
-        <v>238.2921142578125</v>
+        <v>9</v>
       </c>
       <c r="AP90" t="n">
-        <v>238.2921142578125</v>
+        <v>9</v>
       </c>
       <c r="AQ90" t="n">
-        <v>38.32448959350586</v>
+        <v>109.7157592773438</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>188.9199829101562</v>
       </c>
     </row>
   </sheetData>
